--- a/Covid red orange green zones.xlsx
+++ b/Covid red orange green zones.xlsx
@@ -45,7 +45,8 @@
     <comment authorId="0" ref="E42">
       <text>
         <t xml:space="preserve">Geocode : 
-Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+We couldn't find any results for the given address. The GPS data was obtained by using the following address : 
+Yomi</t>
       </text>
     </comment>
     <comment authorId="0" ref="E54">
@@ -55,12 +56,6 @@
       </text>
     </comment>
     <comment authorId="0" ref="E73">
-      <text>
-        <t xml:space="preserve">Geocode : 
-Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E177">
       <text>
         <t xml:space="preserve">Geocode : 
 Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
@@ -81,7 +76,8 @@
     <comment authorId="0" ref="E723">
       <text>
         <t xml:space="preserve">Geocode : 
-Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+We couldn't find any results for the given address. The GPS data was obtained by using the following address : 
+Bardhaman</t>
       </text>
     </comment>
   </commentList>
@@ -2429,7 +2425,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2442,6 +2438,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9C00"/>
+        <bgColor rgb="FFFF9C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -2449,11 +2457,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2461,6 +2472,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2725,10 +2745,10 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>11.8311681</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>92.6586401</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2745,10 +2765,10 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>10.3871439</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>84.1352967999999</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2765,10 +2785,10 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>12.6518832</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>92.8976254</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2785,10 +2805,10 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>15.8281257</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>78.0372792</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2805,10 +2825,10 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>16.3066525</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>80.4365402</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2825,10 +2845,10 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>36.0328618</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>-95.8637863</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2845,10 +2865,10 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>13.4787911</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>78.8382644</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2865,10 +2885,10 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>14.4584603</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>79.9922730999999</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2885,10 +2905,10 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>16.9174181</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>81.3399414</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2905,10 +2925,10 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>40.696959</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>-74.273304</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2925,10 +2945,10 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>14.6818877</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>77.6005911</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2945,10 +2965,10 @@
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>15.348463</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>79.560344</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2965,10 +2985,10 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>17.32125</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>82.0407137</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2985,10 +3005,10 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>18.2949165</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>83.8938017999999</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3005,10 +3025,10 @@
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>17.6868159</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>83.2184815</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3025,10 +3045,10 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>18.1066576</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>83.3955505999999</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -3045,10 +3065,10 @@
       <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>27.9039651</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>96.1739116</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3065,10 +3085,10 @@
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>27.7421763</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>96.642433</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3085,10 +3105,10 @@
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>28.8128767</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>96.1526985</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3105,10 +3125,10 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>27.4231261</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>93.0175712</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3125,10 +3145,10 @@
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>28.1097051</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>95.1432068</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -3145,8 +3165,12 @@
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4">
+        <v>28.00386</v>
+      </c>
+      <c r="E23" s="5">
+        <v>93.20936</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3161,10 +3185,10 @@
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>28.1428728</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>95.8431018</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3181,10 +3205,10 @@
       <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>27.6169349</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>93.8391556999999</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3201,10 +3225,10 @@
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>27.1719019</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>93.7029002</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3221,10 +3245,10 @@
       <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>27.5860574</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>91.8594062</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -3241,10 +3265,10 @@
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>26.9942703</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <v>95.5407299</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -3261,10 +3285,10 @@
       <c r="C29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>28.7588781</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <v>95.2266674999999</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3281,10 +3305,10 @@
       <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>27.786802</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <v>94.3359634999999</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -3301,10 +3325,10 @@
       <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>27.3427633</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>92.3024459999999</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -3321,10 +3345,10 @@
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>28.147254</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <v>94.7484518</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -3341,8 +3365,12 @@
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4">
+        <v>27.994129</v>
+      </c>
+      <c r="E33" s="5">
+        <v>96.838211</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
@@ -3357,10 +3385,10 @@
       <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>39.9476279</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <v>-75.1925979999999</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -3377,8 +3405,12 @@
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="4">
+        <v>27.98922</v>
+      </c>
+      <c r="E35" s="5">
+        <v>93.701088</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
@@ -3393,10 +3425,10 @@
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>27.6692115</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>95.8644018</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -3413,10 +3445,10 @@
       <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>28.1097051</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <v>95.1432068</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -3433,10 +3465,10 @@
       <c r="C38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>23.5407115</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <v>84.7393915999999</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -3453,10 +3485,10 @@
       <c r="C39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>28.147254</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>94.7484518</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -3473,10 +3505,10 @@
       <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>27.145853</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <v>93.2462609999999</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -3493,8 +3525,12 @@
       <c r="C41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="4">
+        <v>45.623482</v>
+      </c>
+      <c r="E41" s="5">
+        <v>12.69042</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3509,8 +3545,12 @@
       <c r="C42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="6">
+        <v>41.0649702</v>
+      </c>
+      <c r="E42" s="7">
+        <v>-73.9911389</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
@@ -3525,10 +3565,10 @@
       <c r="C43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>26.0206982</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <v>89.9743463</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3545,10 +3585,10 @@
       <c r="C44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>26.2599654</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <v>92.2630393</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3565,10 +3605,10 @@
       <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>26.0875755</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <v>90.563609</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3585,10 +3625,10 @@
       <c r="C46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>26.5238515</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <v>93.9623369999999</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3605,10 +3645,10 @@
       <c r="C47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>24.8649128</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <v>92.3591531</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3625,10 +3665,10 @@
       <c r="C48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>26.4446185</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <v>91.4410527</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3645,10 +3685,10 @@
       <c r="C49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>24.6811018</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <v>92.5638055</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -3665,10 +3705,10 @@
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>24.7821253</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <v>92.8577105</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -3685,10 +3725,10 @@
       <c r="C51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>26.3160819</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <v>91.5983959</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -3705,10 +3745,10 @@
       <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <v>27.9462395</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <v>80.7787163</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -3725,10 +3765,10 @@
       <c r="C53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <v>26.0794316</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <v>91.637215</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -3745,8 +3785,12 @@
       <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="4">
+        <v>37.56829</v>
+      </c>
+      <c r="E54" s="5">
+        <v>126.99778</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>12</v>
       </c>
@@ -3761,10 +3805,10 @@
       <c r="C55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <v>26.3215985</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <v>90.9820668</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -3781,10 +3825,10 @@
       <c r="C56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>26.5030072</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>90.5535724</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -3801,10 +3845,10 @@
       <c r="C57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <v>26.4522876</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>92.0273189999999</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -3821,10 +3865,10 @@
       <c r="C58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <v>27.4811106</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="3">
         <v>94.5572847</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -3841,10 +3885,10 @@
       <c r="C59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <v>27.4728327</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>94.9119621</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -3861,10 +3905,10 @@
       <c r="C60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>26.7509207</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="3">
         <v>94.2036696</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -3881,10 +3925,10 @@
       <c r="C61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <v>25.8456764</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="3">
         <v>93.4377583999999</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -3901,10 +3945,10 @@
       <c r="C62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <v>26.4014362</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="3">
         <v>90.266699</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -3921,10 +3965,10 @@
       <c r="C63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>26.348009</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="3">
         <v>92.6838111</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3941,10 +3985,10 @@
       <c r="C64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>25.3478004</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="3">
         <v>93.0175712</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -3961,10 +4005,10 @@
       <c r="C65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>26.9826098</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="3">
         <v>94.6424521</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -3981,10 +4025,10 @@
       <c r="C66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>26.6738851</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="3">
         <v>92.8577105</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -4001,10 +4045,10 @@
       <c r="C67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>27.4885539</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="3">
         <v>95.355758</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -4021,10 +4065,10 @@
       <c r="C68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>26.6539048</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="3">
         <v>90.6393702</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -4041,10 +4085,10 @@
       <c r="C69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>26.6935448</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="3">
         <v>91.5983959</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -4061,10 +4105,10 @@
       <c r="C70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>26.7460177</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="3">
         <v>92.0959429</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -4081,10 +4125,10 @@
       <c r="C71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>26.7266632</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="3">
         <v>93.1478514</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -4101,10 +4145,10 @@
       <c r="C72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>27.0016172</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="3">
         <v>94.2242981</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -4121,8 +4165,12 @@
       <c r="C73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="4">
+        <v>27.020531</v>
+      </c>
+      <c r="E73" s="5">
+        <v>95.002074</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>12</v>
       </c>
@@ -4137,10 +4185,10 @@
       <c r="C74" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>26.0016601</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="3">
         <v>92.847737</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -4157,10 +4205,10 @@
       <c r="C75" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>25.8456764</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="3">
         <v>93.4377583999999</v>
       </c>
       <c r="F75" s="1" t="s">
@@ -4177,10 +4225,10 @@
       <c r="C76" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>43.1030127</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="3">
         <v>-87.8918601</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -4197,10 +4245,10 @@
       <c r="C77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>25.5940947</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="3">
         <v>85.1375645</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -4217,10 +4265,10 @@
       <c r="C78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>25.0685878</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="3">
         <v>84.0167422999999</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -4237,10 +4285,10 @@
       <c r="C79" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>25.5647103</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="3">
         <v>83.9777482</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -4257,10 +4305,10 @@
       <c r="C80" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>24.7913957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="3">
         <v>85.0002336</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -4277,10 +4325,10 @@
       <c r="C81" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>25.1388526</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="3">
         <v>85.451168</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -4297,10 +4345,10 @@
       <c r="C82" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>25.0426227</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="3">
         <v>83.6055732</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -4317,10 +4365,10 @@
       <c r="C83" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>26.2243204</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="3">
         <v>84.3599953</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -4337,10 +4385,10 @@
       <c r="C84" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>26.4831584</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="3">
         <v>84.43655</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -4357,10 +4405,10 @@
       <c r="C85" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>25.466155</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="3">
         <v>84.5222189</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -4377,10 +4425,10 @@
       <c r="C86" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>25.4181638</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="3">
         <v>86.1271542</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -4397,10 +4445,10 @@
       <c r="C87" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>19.8761653</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="3">
         <v>75.3433139</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -4417,10 +4465,10 @@
       <c r="C88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>26.3482938</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="3">
         <v>86.0711661</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4437,10 +4485,10 @@
       <c r="C89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>26.6098139</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="3">
         <v>84.8567932</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -4457,10 +4505,10 @@
       <c r="C90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>24.9506738</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="3">
         <v>87.1198414999999</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -4477,10 +4525,10 @@
       <c r="C91" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>25.1643264</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="3">
         <v>84.6688348</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -4497,10 +4545,10 @@
       <c r="C92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>25.8559698</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="3">
         <v>84.8567932</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -4517,10 +4565,10 @@
       <c r="C93" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>28.0101777</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="3">
         <v>-81.7272986999999</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -4537,10 +4585,10 @@
       <c r="C94" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>25.1571454</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="3">
         <v>86.0951592</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -4557,10 +4605,10 @@
       <c r="C95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>37.09024</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="3">
         <v>-95.712891</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -4577,10 +4625,10 @@
       <c r="C96" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>25.6838206</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="3">
         <v>85.3549649999999</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -4597,10 +4645,10 @@
       <c r="C97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>26.1542045</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="3">
         <v>85.8918454</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -4617,10 +4665,10 @@
       <c r="C98" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>25.2132649</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="3">
         <v>84.9853322</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -4637,10 +4685,10 @@
       <c r="C99" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>25.9239677</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="3">
         <v>86.7946387</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -4657,10 +4705,10 @@
       <c r="C100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>25.7771391</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="3">
         <v>87.4752551</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -4677,10 +4725,10 @@
       <c r="C101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>25.1416937</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="3">
         <v>85.8628914999999</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -4697,10 +4745,10 @@
       <c r="C102" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>26.1324689</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="3">
         <v>87.4528067</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -4717,10 +4765,10 @@
       <c r="C103" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>24.9195147</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="3">
         <v>86.224718</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -4737,10 +4785,10 @@
       <c r="C104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>25.5540648</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="3">
         <v>87.5591073</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -4757,10 +4805,10 @@
       <c r="C105" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>25.50452</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="3">
         <v>86.4701415999999</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -4777,10 +4825,10 @@
       <c r="C106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>26.0982167</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="3">
         <v>87.9450379</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -4797,10 +4845,10 @@
       <c r="C107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>26.1196607</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="3">
         <v>85.390982</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -4817,10 +4865,10 @@
       <c r="C108" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>27.1543104</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="3">
         <v>84.3542049</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -4837,10 +4885,10 @@
       <c r="C109" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <v>25.8773651</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="3">
         <v>86.5927887</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -4857,10 +4905,10 @@
       <c r="C110" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <v>25.8560271</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="3">
         <v>85.7868233</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -4877,10 +4925,10 @@
       <c r="C111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>26.5145872</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="3">
         <v>85.2942312999999</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -4897,10 +4945,10 @@
       <c r="C112" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <v>26.5886976</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="3">
         <v>85.5012971</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -4917,10 +4965,10 @@
       <c r="C113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <v>26.2899113</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="3">
         <v>86.8220341</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -4937,10 +4985,10 @@
       <c r="C114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>30.7333148</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="3">
         <v>76.7794179</v>
       </c>
       <c r="H114" s="1" t="s">
@@ -4957,10 +5005,10 @@
       <c r="C115" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <v>21.2513844</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="3">
         <v>81.6296413</v>
       </c>
       <c r="H115" s="1" t="s">
@@ -4977,10 +5025,10 @@
       <c r="C116" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>22.3594501</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="3">
         <v>82.7500594999999</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -4997,10 +5045,10 @@
       <c r="C117" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>23.2136011</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="3">
         <v>82.8679549</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -5017,10 +5065,10 @@
       <c r="C118" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="3">
         <v>22.0796545</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="3">
         <v>82.1409152</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -5037,10 +5085,10 @@
       <c r="C119" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="3">
         <v>21.1904494</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="3">
         <v>81.2849169</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -5057,10 +5105,10 @@
       <c r="C120" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="3">
         <v>21.0972123</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="3">
         <v>81.0337500999999</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -5077,10 +5125,10 @@
       <c r="C121" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="3">
         <v>19.1071317</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="3">
         <v>81.9534815</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -5097,10 +5145,10 @@
       <c r="C122" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="3">
         <v>18.8456296</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="3">
         <v>81.3839326</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -5117,10 +5165,10 @@
       <c r="C123" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="3">
         <v>20.7014999</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="3">
         <v>81.5541578999999</v>
       </c>
       <c r="F123" s="1" t="s">
@@ -5137,10 +5185,10 @@
       <c r="C124" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="3">
         <v>21.9705529</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="3">
         <v>82.4752757</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -5157,10 +5205,10 @@
       <c r="C125" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="3">
         <v>22.7874503</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="3">
         <v>83.8473015</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -5177,10 +5225,10 @@
       <c r="C126" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="3">
         <v>20.1990123</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="3">
         <v>81.0754657</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -5197,10 +5245,10 @@
       <c r="C127" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="3">
         <v>22.0990944</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="3">
         <v>81.2518833</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -5217,10 +5265,10 @@
       <c r="C128" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="3">
         <v>35.907757</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="3">
         <v>127.766922</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -5237,10 +5285,10 @@
       <c r="C129" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="3">
         <v>21.1124067</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="3">
         <v>82.095962</v>
       </c>
       <c r="F129" s="1" t="s">
@@ -5257,10 +5305,10 @@
       <c r="C130" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="3">
         <v>21.8974003</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="3">
         <v>83.3949631999999</v>
       </c>
       <c r="F130" s="1" t="s">
@@ -5277,10 +5325,10 @@
       <c r="C131" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="3">
         <v>22.9494079</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="3">
         <v>83.1649001</v>
       </c>
       <c r="F131" s="1" t="s">
@@ -5297,10 +5345,10 @@
       <c r="C132" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="3">
         <v>16.8301708</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="3">
         <v>75.710031</v>
       </c>
       <c r="F132" s="1" t="s">
@@ -5317,10 +5365,10 @@
       <c r="C133" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <v>19.7195568</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="3">
         <v>81.2471973</v>
       </c>
       <c r="F133" s="1" t="s">
@@ -5337,10 +5385,10 @@
       <c r="C134" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <v>18.3909118</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="3">
         <v>81.6588003</v>
       </c>
       <c r="F134" s="1" t="s">
@@ -5357,10 +5405,10 @@
       <c r="C135" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <v>19.595851</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="3">
         <v>81.6637765</v>
       </c>
       <c r="F135" s="1" t="s">
@@ -5377,10 +5425,10 @@
       <c r="C136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <v>21.6569173</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="3">
         <v>82.1591962999999</v>
       </c>
       <c r="F136" s="1" t="s">
@@ -5397,10 +5445,10 @@
       <c r="C137" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="3">
         <v>20.6347897</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="3">
         <v>82.0614974</v>
       </c>
       <c r="F137" s="1" t="s">
@@ -5417,10 +5465,10 @@
       <c r="C138" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="3">
         <v>20.7270655</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="3">
         <v>81.2055798</v>
       </c>
       <c r="F138" s="1" t="s">
@@ -5437,10 +5485,10 @@
       <c r="C139" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <v>22.0685419</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="3">
         <v>81.6856808</v>
       </c>
       <c r="F139" s="1" t="s">
@@ -5457,10 +5505,10 @@
       <c r="C140" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <v>27.4307473</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="3">
         <v>82.1805203</v>
       </c>
       <c r="F140" s="1" t="s">
@@ -5477,10 +5525,10 @@
       <c r="C141" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <v>21.7140253</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="3">
         <v>81.5356149</v>
       </c>
       <c r="F141" s="1" t="s">
@@ -5497,10 +5545,10 @@
       <c r="C142" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="3">
         <v>20.1808672</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="3">
         <v>73.0169135</v>
       </c>
       <c r="F142" s="1" t="s">
@@ -5517,10 +5565,10 @@
       <c r="C143" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="3">
         <v>20.3973736</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="3">
         <v>72.8327991</v>
       </c>
       <c r="F143" s="1" t="s">
@@ -5537,10 +5585,10 @@
       <c r="C144" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="3">
         <v>20.7144094</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="3">
         <v>70.9873719</v>
       </c>
       <c r="F144" s="1" t="s">
@@ -5557,10 +5605,10 @@
       <c r="C145" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="3">
         <v>46.8652664</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>-96.8230561</v>
       </c>
       <c r="H145" s="1" t="s">
@@ -5577,10 +5625,10 @@
       <c r="C146" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="3">
         <v>37.079652</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="3">
         <v>-95.6477451</v>
       </c>
       <c r="H146" s="1" t="s">
@@ -5597,10 +5645,10 @@
       <c r="C147" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="3">
         <v>37.09024</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="3">
         <v>-95.712891</v>
       </c>
       <c r="H147" s="1" t="s">
@@ -5617,10 +5665,10 @@
       <c r="C148" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="3">
         <v>25.03764</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="3">
         <v>76.4563087</v>
       </c>
       <c r="H148" s="1" t="s">
@@ -5637,10 +5685,10 @@
       <c r="C149" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="3">
         <v>42.2156131</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="3">
         <v>-79.8342163</v>
       </c>
       <c r="H149" s="1" t="s">
@@ -5657,10 +5705,10 @@
       <c r="C150" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="3">
         <v>37.0364989</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="3">
         <v>-95.6705987</v>
       </c>
       <c r="H150" s="1" t="s">
@@ -5677,10 +5725,10 @@
       <c r="C151" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="3">
         <v>28.6893535</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="3">
         <v>77.2919352</v>
       </c>
       <c r="H151" s="1" t="s">
@@ -5697,10 +5745,10 @@
       <c r="C152" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="3">
         <v>37.2235017</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="3">
         <v>-95.6926628</v>
       </c>
       <c r="H152" s="1" t="s">
@@ -5717,10 +5765,10 @@
       <c r="C153" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="3">
         <v>28.6139391</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="3">
         <v>77.2090212</v>
       </c>
       <c r="H153" s="1" t="s">
@@ -5737,10 +5785,10 @@
       <c r="C154" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="3">
         <v>37.09024</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="3">
         <v>-95.712891</v>
       </c>
       <c r="H154" s="1" t="s">
@@ -5757,10 +5805,10 @@
       <c r="C155" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="3">
         <v>36.1908813</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="3">
         <v>-95.8897448</v>
       </c>
       <c r="H155" s="1" t="s">
@@ -5777,10 +5825,10 @@
       <c r="C156" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="3">
         <v>15.5163112</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="3">
         <v>73.9830029</v>
       </c>
       <c r="F156" s="1" t="s">
@@ -5797,10 +5845,10 @@
       <c r="C157" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="3">
         <v>15.11766</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="3">
         <v>74.1239959999999</v>
       </c>
       <c r="F157" s="1" t="s">
@@ -5817,10 +5865,10 @@
       <c r="C158" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="3">
         <v>23.022505</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="3">
         <v>72.5713621</v>
       </c>
       <c r="H158" s="1" t="s">
@@ -5837,10 +5885,10 @@
       <c r="C159" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="3">
         <v>21.1702401</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="3">
         <v>72.8310607</v>
       </c>
       <c r="H159" s="1" t="s">
@@ -5857,10 +5905,10 @@
       <c r="C160" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <v>22.3071588</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="3">
         <v>73.1812187</v>
       </c>
       <c r="H160" s="1" t="s">
@@ -5877,10 +5925,10 @@
       <c r="C161" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <v>40.7722991</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="3">
         <v>-73.9552362</v>
       </c>
       <c r="H161" s="1" t="s">
@@ -5897,10 +5945,10 @@
       <c r="C162" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <v>24.3454739</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="3">
         <v>71.7622481</v>
       </c>
       <c r="H162" s="1" t="s">
@@ -5917,10 +5965,10 @@
       <c r="C163" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <v>22.8011177</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="3">
         <v>73.5594127999999</v>
       </c>
       <c r="H163" s="1" t="s">
@@ -5937,10 +5985,10 @@
       <c r="C164" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="3">
         <v>21.7644725</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="3">
         <v>72.1519304</v>
       </c>
       <c r="H164" s="1" t="s">
@@ -5957,10 +6005,10 @@
       <c r="C165" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="3">
         <v>23.2156354</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="3">
         <v>72.6369414999999</v>
       </c>
       <c r="H165" s="1" t="s">
@@ -5977,10 +6025,10 @@
       <c r="C166" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="3">
         <v>23.5204911</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="3">
         <v>73.3708695999999</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -5997,10 +6045,10 @@
       <c r="C167" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="3">
         <v>22.3038945</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="3">
         <v>70.8021598999999</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -6017,10 +6065,10 @@
       <c r="C168" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="3">
         <v>21.7051358</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="3">
         <v>72.9958748</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -6037,10 +6085,10 @@
       <c r="C169" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="3">
         <v>22.1722509</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="3">
         <v>71.663622</v>
       </c>
       <c r="G169" s="1" t="s">
@@ -6057,10 +6105,10 @@
       <c r="C170" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="3">
         <v>22.4965494</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="3">
         <v>77.0494727999999</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -6077,10 +6125,10 @@
       <c r="C171" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="3">
         <v>22.3084941</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="3">
         <v>74.0119993</v>
       </c>
       <c r="G171" s="1" t="s">
@@ -6097,10 +6145,10 @@
       <c r="C172" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="3">
         <v>23.1711262</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="3">
         <v>73.5594127999999</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -6117,10 +6165,10 @@
       <c r="C173" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="3">
         <v>23.5879607</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="3">
         <v>72.3693251999999</v>
       </c>
       <c r="G173" s="1" t="s">
@@ -6137,10 +6185,10 @@
       <c r="C174" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="3">
         <v>23.8500156</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="3">
         <v>72.1210274</v>
       </c>
       <c r="G174" s="1" t="s">
@@ -6157,10 +6205,10 @@
       <c r="C175" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="3">
         <v>22.750651</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="3">
         <v>72.6846657999999</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -6177,10 +6225,10 @@
       <c r="C176" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="3">
         <v>20.5992349</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="3">
         <v>72.9342451</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -6197,8 +6245,12 @@
       <c r="C177" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="4"/>
+      <c r="D177" s="8">
+        <v>34.068993</v>
+      </c>
+      <c r="E177" s="8">
+        <v>-118.403969</v>
+      </c>
       <c r="G177" s="1" t="s">
         <v>21</v>
       </c>
@@ -6213,10 +6265,10 @@
       <c r="C178" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="3">
         <v>23.7337326</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="3">
         <v>69.8597406</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -6233,10 +6285,10 @@
       <c r="C179" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="3">
         <v>20.9467019</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="3">
         <v>72.9520347999999</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -6253,10 +6305,10 @@
       <c r="C180" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="3">
         <v>21.0119385</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="3">
         <v>70.7168469</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -6273,10 +6325,10 @@
       <c r="C181" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="3">
         <v>39.7501681</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="3">
         <v>-104.9085788</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -6293,10 +6345,10 @@
       <c r="C182" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="3">
         <v>23.8476704</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="3">
         <v>72.9932968999999</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -6313,10 +6365,10 @@
       <c r="C183" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="3">
         <v>33.4475055</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="3">
         <v>-112.0647351</v>
       </c>
       <c r="G183" s="1" t="s">
@@ -6333,10 +6385,10 @@
       <c r="C184" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="3">
         <v>22.4707019</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="3">
         <v>70.05773</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -6353,10 +6405,10 @@
       <c r="C185" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="3">
         <v>22.7738938</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="3">
         <v>71.6673352</v>
       </c>
       <c r="G185" s="1" t="s">
@@ -6373,10 +6425,10 @@
       <c r="C186" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="3">
         <v>22.8251874</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="3">
         <v>70.8490808999999</v>
       </c>
       <c r="F186" s="1" t="s">
@@ -6393,10 +6445,10 @@
       <c r="C187" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="3">
         <v>21.6015242</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="3">
         <v>71.2203555</v>
       </c>
       <c r="F187" s="1" t="s">
@@ -6413,10 +6465,10 @@
       <c r="C188" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="3">
         <v>21.6416979</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="3">
         <v>69.6293058999999</v>
       </c>
       <c r="F188" s="1" t="s">
@@ -6433,10 +6485,10 @@
       <c r="C189" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="3">
         <v>21.5222203</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="3">
         <v>70.4579436</v>
       </c>
       <c r="F189" s="1" t="s">
@@ -6453,10 +6505,10 @@
       <c r="C190" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="3">
         <v>22.1232327</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="3">
         <v>69.3831079</v>
       </c>
       <c r="F190" s="1" t="s">
@@ -6473,10 +6525,10 @@
       <c r="C191" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="3">
         <v>28.9930822999999</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="3">
         <v>77.0150735</v>
       </c>
       <c r="H191" s="1" t="s">
@@ -6493,10 +6545,10 @@
       <c r="C192" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="3">
         <v>28.4089123</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="3">
         <v>77.3177894</v>
       </c>
       <c r="H192" s="1" t="s">
@@ -6513,10 +6565,10 @@
       <c r="C193" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="3">
         <v>28.4594965</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="3">
         <v>77.0266383</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -6533,10 +6585,10 @@
       <c r="C194" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="3">
         <v>28.1023894</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="3">
         <v>76.9931074</v>
       </c>
       <c r="G194" s="1" t="s">
@@ -6553,10 +6605,10 @@
       <c r="C195" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="3">
         <v>29.3909464</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="3">
         <v>76.9635023</v>
       </c>
       <c r="G195" s="1" t="s">
@@ -6573,10 +6625,10 @@
       <c r="C196" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="3">
         <v>30.6942091</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="3">
         <v>76.860565</v>
       </c>
       <c r="G196" s="1" t="s">
@@ -6593,10 +6645,10 @@
       <c r="C197" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="3">
         <v>28.1472852</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="3">
         <v>77.3259878</v>
       </c>
       <c r="G197" s="1" t="s">
@@ -6613,10 +6665,10 @@
       <c r="C198" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="3">
         <v>28.8955152</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="3">
         <v>76.606611</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -6633,10 +6685,10 @@
       <c r="C199" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="3">
         <v>29.1491875</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="3">
         <v>75.7216527</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -6653,10 +6705,10 @@
       <c r="C200" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="3">
         <v>30.3752011</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="3">
         <v>76.782122</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -6673,10 +6725,10 @@
       <c r="C201" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="3">
         <v>28.6054875</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="3">
         <v>76.6537749</v>
       </c>
       <c r="G201" s="1" t="s">
@@ -6693,10 +6745,10 @@
       <c r="C202" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="3">
         <v>28.7974684</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="3">
         <v>76.1322058</v>
       </c>
       <c r="G202" s="1" t="s">
@@ -6713,10 +6765,10 @@
       <c r="C203" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="3">
         <v>29.8042758</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="3">
         <v>76.4039016</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -6733,10 +6785,10 @@
       <c r="C204" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="3">
         <v>29.9695121</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="3">
         <v>76.878282</v>
       </c>
       <c r="G204" s="1" t="s">
@@ -6753,10 +6805,10 @@
       <c r="C205" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="3">
         <v>29.6856929</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="3">
         <v>76.9904825</v>
       </c>
       <c r="G205" s="1" t="s">
@@ -6773,10 +6825,10 @@
       <c r="C206" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="3">
         <v>29.3612936</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="3">
         <v>76.3637285</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -6793,10 +6845,10 @@
       <c r="C207" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="3">
         <v>29.5320731</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="3">
         <v>75.0317733999999</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -6813,10 +6865,10 @@
       <c r="C208" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="3">
         <v>30.1290485</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="3">
         <v>77.2673901</v>
       </c>
       <c r="G208" s="1" t="s">
@@ -6833,10 +6885,10 @@
       <c r="C209" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="3">
         <v>29.6455185</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="3">
         <v>75.6208087999999</v>
       </c>
       <c r="G209" s="1" t="s">
@@ -6853,10 +6905,10 @@
       <c r="C210" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="3">
         <v>28.5920617</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="3">
         <v>76.2652909</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -6873,10 +6925,10 @@
       <c r="C211" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="3">
         <v>28.2734201</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="3">
         <v>76.1401348999999</v>
       </c>
       <c r="F211" s="1" t="s">
@@ -6893,10 +6945,10 @@
       <c r="C212" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="3">
         <v>28.1919738</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="3">
         <v>76.6190774</v>
       </c>
       <c r="F212" s="1" t="s">
@@ -6913,10 +6965,10 @@
       <c r="C213" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="3">
         <v>38.9263954</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="3">
         <v>-94.5870297</v>
       </c>
       <c r="G213" s="1" t="s">
@@ -6933,10 +6985,10 @@
       <c r="C214" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="3">
         <v>32.5533633</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="3">
         <v>76.1258083</v>
       </c>
       <c r="G214" s="1" t="s">
@@ -6953,10 +7005,10 @@
       <c r="C215" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="3">
         <v>31.6861745</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="3">
         <v>76.5213091999999</v>
       </c>
       <c r="G215" s="1" t="s">
@@ -6973,10 +7025,10 @@
       <c r="C216" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="3">
         <v>32.0668524</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216" s="3">
         <v>76.3637285</v>
       </c>
       <c r="G216" s="1" t="s">
@@ -6993,10 +7045,10 @@
       <c r="C217" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="3">
         <v>30.5628455</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="3">
         <v>77.4701972</v>
       </c>
       <c r="G217" s="1" t="s">
@@ -7013,10 +7065,10 @@
       <c r="C218" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="3">
         <v>30.9084245</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218" s="3">
         <v>77.0999030999999</v>
       </c>
       <c r="G218" s="1" t="s">
@@ -7033,10 +7085,10 @@
       <c r="C219" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="3">
         <v>22.0796545</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="3">
         <v>82.1409152</v>
       </c>
       <c r="F219" s="1" t="s">
@@ -7053,10 +7105,10 @@
       <c r="C220" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="3">
         <v>31.6509575999999</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E220" s="3">
         <v>78.4751945</v>
       </c>
       <c r="F220" s="1" t="s">
@@ -7073,8 +7125,12 @@
       <c r="C221" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="4"/>
+      <c r="D221" s="4">
+        <v>31.9545843</v>
+      </c>
+      <c r="E221" s="5">
+        <v>77.0937828</v>
+      </c>
       <c r="F221" s="1" t="s">
         <v>12</v>
       </c>
@@ -7089,10 +7145,10 @@
       <c r="C222" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="3">
         <v>32.6192107</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222" s="3">
         <v>77.3783789</v>
       </c>
       <c r="F222" s="1" t="s">
@@ -7109,10 +7165,10 @@
       <c r="C223" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="3">
         <v>29.6850047</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="3">
         <v>-95.3912029999999</v>
       </c>
       <c r="F223" s="1" t="s">
@@ -7129,10 +7185,10 @@
       <c r="C224" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="3">
         <v>31.1048145</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="3">
         <v>77.1734032999999</v>
       </c>
       <c r="F224" s="1" t="s">
@@ -7149,10 +7205,10 @@
       <c r="C225" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="3">
         <v>34.5052269</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="3">
         <v>74.6868815</v>
       </c>
       <c r="H225" s="1" t="s">
@@ -7169,10 +7225,10 @@
       <c r="C226" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="3">
         <v>33.7593643</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="3">
         <v>74.8039205</v>
       </c>
       <c r="H226" s="1" t="s">
@@ -7189,10 +7245,10 @@
       <c r="C227" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="3">
         <v>33.7311255</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="3">
         <v>75.1487006999999</v>
       </c>
       <c r="H227" s="1" t="s">
@@ -7209,10 +7265,10 @@
       <c r="C228" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="3">
         <v>34.0836708</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="3">
         <v>74.7972825</v>
       </c>
       <c r="H228" s="1" t="s">
@@ -7229,10 +7285,10 @@
       <c r="C229" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="3">
         <v>34.1595145</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="3">
         <v>74.3587472999999</v>
       </c>
       <c r="G229" s="1" t="s">
@@ -7249,10 +7305,10 @@
       <c r="C230" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="3">
         <v>34.5261786</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="3">
         <v>74.2546136</v>
       </c>
       <c r="G230" s="1" t="s">
@@ -7269,10 +7325,10 @@
       <c r="C231" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="3">
         <v>34.3298401</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="3">
         <v>75.0143824</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -7289,10 +7345,10 @@
       <c r="C232" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="3">
         <v>33.778175</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="3">
         <v>76.5761713999999</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -7309,10 +7365,10 @@
       <c r="C233" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="3">
         <v>32.9159847</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="3">
         <v>75.1416173</v>
       </c>
       <c r="G233" s="1" t="s">
@@ -7329,10 +7385,10 @@
       <c r="C234" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="3">
         <v>33.6449908</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="3">
         <v>75.018031</v>
       </c>
       <c r="G234" s="1" t="s">
@@ -7349,10 +7405,10 @@
       <c r="C235" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="3">
         <v>33.9348549</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="3">
         <v>74.6400432</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -7369,10 +7425,10 @@
       <c r="C236" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="3">
         <v>43.0754236</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="3">
         <v>-89.3931456</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -7389,10 +7445,10 @@
       <c r="C237" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="3">
         <v>32.3863082</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="3">
         <v>75.5173465</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -7409,10 +7465,10 @@
       <c r="C238" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="3">
         <v>33.3716143</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238" s="3">
         <v>74.315191</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -7429,10 +7485,10 @@
       <c r="C239" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="3">
         <v>29.655036</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="3">
         <v>-95.510284</v>
       </c>
       <c r="G239" s="1" t="s">
@@ -7449,10 +7505,10 @@
       <c r="C240" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="3">
         <v>33.0803564</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="3">
         <v>74.8364412999999</v>
       </c>
       <c r="G240" s="1" t="s">
@@ -7469,10 +7525,10 @@
       <c r="C241" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="3">
         <v>33.8716117</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="3">
         <v>74.8945691999999</v>
       </c>
       <c r="F241" s="1" t="s">
@@ -7489,10 +7545,10 @@
       <c r="C242" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="3">
         <v>33.3115906</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="3">
         <v>75.7662194999999</v>
       </c>
       <c r="F242" s="1" t="s">
@@ -7509,10 +7565,10 @@
       <c r="C243" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="3">
         <v>33.6525063</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="3">
         <v>76.6358669999999</v>
       </c>
       <c r="F243" s="1" t="s">
@@ -7529,10 +7585,10 @@
       <c r="C244" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="3">
         <v>33.7670014</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="3">
         <v>74.0924041</v>
       </c>
       <c r="F244" s="1" t="s">
@@ -7549,10 +7605,10 @@
       <c r="C245" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="3">
         <v>23.3440997</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245" s="3">
         <v>85.309562</v>
       </c>
       <c r="H245" s="1" t="s">
@@ -7569,10 +7625,10 @@
       <c r="C246" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="3">
         <v>23.6692956</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246" s="3">
         <v>86.151112</v>
       </c>
       <c r="G246" s="1" t="s">
@@ -7589,10 +7645,10 @@
       <c r="C247" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="3">
         <v>24.1084558</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="3">
         <v>83.6773927999999</v>
       </c>
       <c r="G247" s="1" t="s">
@@ -7609,10 +7665,10 @@
       <c r="C248" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="3">
         <v>23.7956531</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="3">
         <v>86.4303858999999</v>
       </c>
       <c r="G248" s="1" t="s">
@@ -7629,10 +7685,10 @@
       <c r="C249" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="3">
         <v>24.485179</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249" s="3">
         <v>86.694785</v>
       </c>
       <c r="G249" s="1" t="s">
@@ -7649,10 +7705,10 @@
       <c r="C250" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="3">
         <v>23.9924669</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="3">
         <v>85.3636758</v>
       </c>
       <c r="G250" s="1" t="s">
@@ -7669,10 +7725,10 @@
       <c r="C251" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="3">
         <v>22.6151138</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="3">
         <v>84.4959985</v>
       </c>
       <c r="G251" s="1" t="s">
@@ -7689,10 +7745,10 @@
       <c r="C252" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="3">
         <v>24.19135</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252" s="3">
         <v>86.2996368</v>
       </c>
       <c r="G252" s="1" t="s">
@@ -7709,10 +7765,10 @@
       <c r="C253" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="3">
         <v>24.4676805</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="3">
         <v>85.5933644999999</v>
       </c>
       <c r="G253" s="1" t="s">
@@ -7729,10 +7785,10 @@
       <c r="C254" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="3">
         <v>23.9505496</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254" s="3">
         <v>86.8170131999999</v>
       </c>
       <c r="G254" s="1" t="s">
@@ -7749,10 +7805,10 @@
       <c r="C255" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="3">
         <v>24.2065446</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="3">
         <v>84.871802</v>
       </c>
       <c r="F255" s="1" t="s">
@@ -7769,10 +7825,10 @@
       <c r="C256" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="3">
         <v>24.2684794</v>
       </c>
-      <c r="E256" s="2">
+      <c r="E256" s="3">
         <v>87.2488087999999</v>
       </c>
       <c r="F256" s="1" t="s">
@@ -7789,10 +7845,10 @@
       <c r="C257" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="3">
         <v>22.4866756</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257" s="3">
         <v>86.4996546</v>
       </c>
       <c r="F257" s="1" t="s">
@@ -7809,10 +7865,10 @@
       <c r="C258" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="3">
         <v>24.8255215</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258" s="3">
         <v>87.2135177</v>
       </c>
       <c r="F258" s="1" t="s">
@@ -7829,10 +7885,10 @@
       <c r="C259" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="3">
         <v>23.0441295</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259" s="3">
         <v>84.5379454999999</v>
       </c>
       <c r="F259" s="1" t="s">
@@ -7849,10 +7905,10 @@
       <c r="C260" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="3">
         <v>23.7463215</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260" s="3">
         <v>84.5091102</v>
       </c>
       <c r="F260" s="1" t="s">
@@ -7869,10 +7925,10 @@
       <c r="C261" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="3">
         <v>23.4337504</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="3">
         <v>84.6479124</v>
       </c>
       <c r="F261" s="1" t="s">
@@ -7889,10 +7945,10 @@
       <c r="C262" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="3">
         <v>24.6336908</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="3">
         <v>87.8500644</v>
       </c>
       <c r="F262" s="1" t="s">
@@ -7909,10 +7965,10 @@
       <c r="C263" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="3">
         <v>24.1286106</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="3">
         <v>84.1857115</v>
       </c>
       <c r="F263" s="1" t="s">
@@ -7929,10 +7985,10 @@
       <c r="C264" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="3">
         <v>25.2381216</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="3">
         <v>87.6453592</v>
       </c>
       <c r="F264" s="1" t="s">
@@ -7949,10 +8005,10 @@
       <c r="C265" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="3">
         <v>22.8561261</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265" s="3">
         <v>86.0121573</v>
       </c>
       <c r="F265" s="1" t="s">
@@ -7969,10 +8025,10 @@
       <c r="C266" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="3">
         <v>22.3650858</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266" s="3">
         <v>85.4375574</v>
       </c>
       <c r="F266" s="1" t="s">
@@ -7989,10 +8045,10 @@
       <c r="C267" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="3">
         <v>23.0797595</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="3">
         <v>85.2774207</v>
       </c>
       <c r="F267" s="1" t="s">
@@ -8009,10 +8065,10 @@
       <c r="C268" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="3">
         <v>23.6523678</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="3">
         <v>85.56121</v>
       </c>
       <c r="F268" s="1" t="s">
@@ -8029,10 +8085,10 @@
       <c r="C269" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="3">
         <v>12.9700247</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="3">
         <v>77.6536125</v>
       </c>
       <c r="H269" s="1" t="s">
@@ -8049,10 +8105,10 @@
       <c r="C270" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="3">
         <v>12.2958104</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270" s="3">
         <v>76.6393805</v>
       </c>
       <c r="H270" s="1" t="s">
@@ -8069,10 +8125,10 @@
       <c r="C271" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="3">
         <v>13.2846993</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="3">
         <v>77.6077865</v>
       </c>
       <c r="H271" s="1" t="s">
@@ -8089,10 +8145,10 @@
       <c r="C272" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="3">
         <v>15.8496953</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="3">
         <v>74.4976741</v>
       </c>
       <c r="G272" s="1" t="s">
@@ -8109,10 +8165,10 @@
       <c r="C273" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="3">
         <v>16.8301708</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="3">
         <v>75.710031</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -8129,10 +8185,10 @@
       <c r="C274" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="3">
         <v>17.329731</v>
       </c>
-      <c r="E274" s="2">
+      <c r="E274" s="3">
         <v>76.8342957</v>
       </c>
       <c r="G274" s="1" t="s">
@@ -8149,10 +8205,10 @@
       <c r="C275" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="3">
         <v>16.1691096</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="3">
         <v>75.6615029</v>
       </c>
       <c r="G275" s="1" t="s">
@@ -8169,10 +8225,10 @@
       <c r="C276" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="3">
         <v>12.5218157</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276" s="3">
         <v>76.8951488</v>
       </c>
       <c r="G276" s="1" t="s">
@@ -8189,10 +8245,10 @@
       <c r="C277" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="3">
         <v>15.1393932</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277" s="3">
         <v>76.9214428</v>
       </c>
       <c r="G277" s="1" t="s">
@@ -8209,10 +8265,10 @@
       <c r="C278" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="3">
         <v>15.4589236</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278" s="3">
         <v>75.007808</v>
       </c>
       <c r="G278" s="1" t="s">
@@ -8229,10 +8285,10 @@
       <c r="C279" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="3">
         <v>12.8437814</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="3">
         <v>75.2479061</v>
       </c>
       <c r="G279" s="1" t="s">
@@ -8249,10 +8305,10 @@
       <c r="C280" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="3">
         <v>17.9103939</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280" s="3">
         <v>77.5199078999999</v>
       </c>
       <c r="G280" s="1" t="s">
@@ -8269,10 +8325,10 @@
       <c r="C281" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="3">
         <v>13.4354985</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="3">
         <v>77.7315344</v>
       </c>
       <c r="G281" s="1" t="s">
@@ -8289,10 +8345,10 @@
       <c r="C282" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="3">
         <v>15.4315406</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="3">
         <v>75.6355148999999</v>
       </c>
       <c r="G282" s="1" t="s">
@@ -8309,10 +8365,10 @@
       <c r="C283" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="3">
         <v>14.7937065</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="3">
         <v>74.6868815</v>
       </c>
       <c r="G283" s="1" t="s">
@@ -8329,10 +8385,10 @@
       <c r="C284" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="3">
         <v>13.3378762</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284" s="3">
         <v>77.117325</v>
       </c>
       <c r="G284" s="1" t="s">
@@ -8349,10 +8405,10 @@
       <c r="C285" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="3">
         <v>14.4644085</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="3">
         <v>75.921758</v>
       </c>
       <c r="F285" s="1" t="s">
@@ -8369,10 +8425,10 @@
       <c r="C286" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="3">
         <v>13.3408807</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E286" s="3">
         <v>74.7421427</v>
       </c>
       <c r="F286" s="1" t="s">
@@ -8389,10 +8445,10 @@
       <c r="C287" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287" s="3">
         <v>11.9261471</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287" s="3">
         <v>76.9437312</v>
       </c>
       <c r="F287" s="1" t="s">
@@ -8409,10 +8465,10 @@
       <c r="C288" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="3">
         <v>13.4045068</v>
       </c>
-      <c r="E288" s="2">
+      <c r="E288" s="3">
         <v>75.6208087999999</v>
       </c>
       <c r="F288" s="1" t="s">
@@ -8429,10 +8485,10 @@
       <c r="C289" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="3">
         <v>14.2250932</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="3">
         <v>76.3980464</v>
       </c>
       <c r="F289" s="1" t="s">
@@ -8449,10 +8505,10 @@
       <c r="C290" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="3">
         <v>13.0033234</v>
       </c>
-      <c r="E290" s="2">
+      <c r="E290" s="3">
         <v>76.1003894</v>
       </c>
       <c r="F290" s="1" t="s">
@@ -8469,10 +8525,10 @@
       <c r="C291" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="3">
         <v>14.7950698</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291" s="3">
         <v>75.3990673999999</v>
       </c>
       <c r="F291" s="1" t="s">
@@ -8489,10 +8545,10 @@
       <c r="C292" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="3">
         <v>12.3374942</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292" s="3">
         <v>75.8069082</v>
       </c>
       <c r="F292" s="1" t="s">
@@ -8509,10 +8565,10 @@
       <c r="C293" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="3">
         <v>46.8213809</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293" s="3">
         <v>-92.182098</v>
       </c>
       <c r="F293" s="1" t="s">
@@ -8529,10 +8585,10 @@
       <c r="C294" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="3">
         <v>15.3504652</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294" s="3">
         <v>76.1567298</v>
       </c>
       <c r="F294" s="1" t="s">
@@ -8549,10 +8605,10 @@
       <c r="C295" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="3">
         <v>16.216018</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295" s="3">
         <v>77.3565608</v>
       </c>
       <c r="F295" s="1" t="s">
@@ -8569,10 +8625,10 @@
       <c r="C296" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="3">
         <v>13.9299299</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296" s="3">
         <v>75.568101</v>
       </c>
       <c r="F296" s="1" t="s">
@@ -8589,10 +8645,10 @@
       <c r="C297" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="3">
         <v>12.7208614</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297" s="3">
         <v>77.2798962999999</v>
       </c>
       <c r="F297" s="1" t="s">
@@ -8609,10 +8665,10 @@
       <c r="C298" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="3">
         <v>16.7625516</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298" s="3">
         <v>77.1442251</v>
       </c>
       <c r="F298" s="1" t="s">
@@ -8629,10 +8685,10 @@
       <c r="C299" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="3">
         <v>11.8744775</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299" s="3">
         <v>75.3703661999999</v>
       </c>
       <c r="H299" s="1" t="s">
@@ -8649,10 +8705,10 @@
       <c r="C300" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="3">
         <v>9.59156679999999</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300" s="3">
         <v>76.5221531</v>
       </c>
       <c r="H300" s="1" t="s">
@@ -8669,10 +8725,10 @@
       <c r="C301" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="3">
         <v>12.4995966</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301" s="3">
         <v>74.9869276</v>
       </c>
       <c r="G301" s="1" t="s">
@@ -8689,10 +8745,10 @@
       <c r="C302" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="3">
         <v>9.9188973</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302" s="3">
         <v>77.1024901999999</v>
       </c>
       <c r="G302" s="1" t="s">
@@ -8709,10 +8765,10 @@
       <c r="C303" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="3">
         <v>11.2587531</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303" s="3">
         <v>75.78041</v>
       </c>
       <c r="G303" s="1" t="s">
@@ -8729,10 +8785,10 @@
       <c r="C304" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="3">
         <v>8.8932118</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304" s="3">
         <v>76.6141396</v>
       </c>
       <c r="G304" s="1" t="s">
@@ -8749,10 +8805,10 @@
       <c r="C305" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="3">
         <v>10.7867303</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305" s="3">
         <v>76.6547932</v>
       </c>
       <c r="G305" s="1" t="s">
@@ -8769,10 +8825,10 @@
       <c r="C306" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="3">
         <v>9.2647582</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306" s="3">
         <v>76.7870413999999</v>
       </c>
       <c r="G306" s="1" t="s">
@@ -8789,10 +8845,10 @@
       <c r="C307" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="3">
         <v>11.0509762</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307" s="3">
         <v>76.0710967</v>
       </c>
       <c r="G307" s="1" t="s">
@@ -8809,10 +8865,10 @@
       <c r="C308" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="3">
         <v>8.5241391</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308" s="3">
         <v>76.9366376</v>
       </c>
       <c r="G308" s="1" t="s">
@@ -8829,10 +8885,10 @@
       <c r="C309" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="3">
         <v>9.49806669999999</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309" s="3">
         <v>76.3388484</v>
       </c>
       <c r="G309" s="1" t="s">
@@ -8849,10 +8905,10 @@
       <c r="C310" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="3">
         <v>10.5276416</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310" s="3">
         <v>76.2144349</v>
       </c>
       <c r="G310" s="1" t="s">
@@ -8869,10 +8925,10 @@
       <c r="C311" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="3">
         <v>9.9816358</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="3">
         <v>76.2998842</v>
       </c>
       <c r="F311" s="1" t="s">
@@ -8889,10 +8945,10 @@
       <c r="C312" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="3">
         <v>11.6853575</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312" s="3">
         <v>76.1319953</v>
       </c>
       <c r="F312" s="1" t="s">
@@ -8909,10 +8965,10 @@
       <c r="C313" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="3">
         <v>34.1525864</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313" s="3">
         <v>77.5770534999999</v>
       </c>
       <c r="G313" s="1" t="s">
@@ -8929,10 +8985,10 @@
       <c r="C314" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="3">
         <v>34.5538522</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314" s="3">
         <v>76.1348944</v>
       </c>
       <c r="G314" s="1" t="s">
@@ -8949,10 +9005,10 @@
       <c r="C315" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="3">
         <v>10.3280265</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315" s="3">
         <v>72.7846335999999</v>
       </c>
       <c r="F315" s="1" t="s">
@@ -8969,10 +9025,10 @@
       <c r="C316" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="3">
         <v>22.7195687</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316" s="3">
         <v>75.8577258</v>
       </c>
       <c r="H316" s="1" t="s">
@@ -8989,10 +9045,10 @@
       <c r="C317" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="3">
         <v>23.2599333</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="3">
         <v>77.412615</v>
       </c>
       <c r="H317" s="1" t="s">
@@ -9009,10 +9065,10 @@
       <c r="C318" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="3">
         <v>23.1764665</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318" s="3">
         <v>75.7885163</v>
       </c>
       <c r="H318" s="1" t="s">
@@ -9029,10 +9085,10 @@
       <c r="C319" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="3">
         <v>23.181467</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="3">
         <v>79.9864071</v>
       </c>
       <c r="H319" s="1" t="s">
@@ -9049,10 +9105,10 @@
       <c r="C320" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="3">
         <v>39.0239816</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320" s="3">
         <v>-77.0450417</v>
       </c>
       <c r="H320" s="1" t="s">
@@ -9069,10 +9125,10 @@
       <c r="C321" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="3">
         <v>22.0363157</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="3">
         <v>74.903339</v>
       </c>
       <c r="H321" s="1" t="s">
@@ -9089,10 +9145,10 @@
       <c r="C322" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="3">
         <v>21.8802526</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322" s="3">
         <v>76.6412711999999</v>
       </c>
       <c r="H322" s="1" t="s">
@@ -9109,10 +9165,10 @@
       <c r="C323" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="3">
         <v>22.9675929</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="3">
         <v>76.0534454</v>
       </c>
       <c r="H323" s="1" t="s">
@@ -9129,10 +9185,10 @@
       <c r="C324" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="3">
         <v>26.2182871</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324" s="3">
         <v>78.1828307999999</v>
       </c>
       <c r="H324" s="1" t="s">
@@ -9149,10 +9205,10 @@
       <c r="C325" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="3">
         <v>21.8335244</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="3">
         <v>75.6149892999999</v>
       </c>
       <c r="G325" s="1" t="s">
@@ -9169,10 +9225,10 @@
       <c r="C326" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="3">
         <v>23.3327329</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326" s="3">
         <v>77.7823973</v>
       </c>
       <c r="G326" s="1" t="s">
@@ -9189,10 +9245,10 @@
       <c r="C327" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="3">
         <v>22.7518961</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327" s="3">
         <v>77.7288655</v>
       </c>
       <c r="G327" s="1" t="s">
@@ -9209,10 +9265,10 @@
       <c r="C328" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="3">
         <v>23.3315103</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E328" s="3">
         <v>75.0366677</v>
       </c>
       <c r="G328" s="1" t="s">
@@ -9229,10 +9285,10 @@
       <c r="C329" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="3">
         <v>23.7137337</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329" s="3">
         <v>76.0094637</v>
       </c>
       <c r="G329" s="1" t="s">
@@ -9249,10 +9305,10 @@
       <c r="C330" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="3">
         <v>24.0734356</v>
       </c>
-      <c r="E330" s="2">
+      <c r="E330" s="3">
         <v>75.0679018</v>
       </c>
       <c r="G330" s="1" t="s">
@@ -9269,10 +9325,10 @@
       <c r="C331" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="3">
         <v>23.838805</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331" s="3">
         <v>78.7378068</v>
       </c>
       <c r="G331" s="1" t="s">
@@ -9289,10 +9345,10 @@
       <c r="C332" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="3">
         <v>23.4272938</v>
       </c>
-      <c r="E332" s="2">
+      <c r="E332" s="3">
         <v>76.2729839</v>
       </c>
       <c r="G332" s="1" t="s">
@@ -9309,10 +9365,10 @@
       <c r="C333" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="3">
         <v>22.057437</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333" s="3">
         <v>78.9381729</v>
       </c>
       <c r="G333" s="1" t="s">
@@ -9329,10 +9385,10 @@
       <c r="C334" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D334" s="2">
+      <c r="D334" s="3">
         <v>22.3403431</v>
       </c>
-      <c r="E334" s="2">
+      <c r="E334" s="3">
         <v>74.4994517</v>
       </c>
       <c r="G334" s="1" t="s">
@@ -9349,10 +9405,10 @@
       <c r="C335" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D335" s="2">
+      <c r="D335" s="3">
         <v>24.7456147</v>
       </c>
-      <c r="E335" s="2">
+      <c r="E335" s="3">
         <v>78.8320779</v>
       </c>
       <c r="G335" s="1" t="s">
@@ -9369,10 +9425,10 @@
       <c r="C336" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336" s="3">
         <v>23.6212786</v>
       </c>
-      <c r="E336" s="2">
+      <c r="E336" s="3">
         <v>81.4278983999999</v>
       </c>
       <c r="G336" s="1" t="s">
@@ -9389,10 +9445,10 @@
       <c r="C337" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337" s="3">
         <v>25.67282</v>
       </c>
-      <c r="E337" s="2">
+      <c r="E337" s="3">
         <v>76.6961305</v>
       </c>
       <c r="G337" s="1" t="s">
@@ -9409,10 +9465,10 @@
       <c r="C338" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338" s="3">
         <v>22.8457457</v>
       </c>
-      <c r="E338" s="2">
+      <c r="E338" s="3">
         <v>81.0754657</v>
       </c>
       <c r="G338" s="1" t="s">
@@ -9429,10 +9485,10 @@
       <c r="C339" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339" s="3">
         <v>21.3145021</v>
       </c>
-      <c r="E339" s="2">
+      <c r="E339" s="3">
         <v>76.2180095</v>
       </c>
       <c r="G339" s="1" t="s">
@@ -9449,10 +9505,10 @@
       <c r="C340" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340" s="3">
         <v>22.3466702</v>
       </c>
-      <c r="E340" s="2">
+      <c r="E340" s="3">
         <v>77.0889583</v>
       </c>
       <c r="G340" s="1" t="s">
@@ -9469,10 +9525,10 @@
       <c r="C341" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341" s="3">
         <v>21.9011601</v>
       </c>
-      <c r="E341" s="2">
+      <c r="E341" s="3">
         <v>77.8960201</v>
       </c>
       <c r="G341" s="1" t="s">
@@ -9489,10 +9545,10 @@
       <c r="C342" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342" s="3">
         <v>23.5235719</v>
       </c>
-      <c r="E342" s="2">
+      <c r="E342" s="3">
         <v>77.8139717999999</v>
       </c>
       <c r="G342" s="1" t="s">
@@ -9509,10 +9565,10 @@
       <c r="C343" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343" s="3">
         <v>32.767107</v>
       </c>
-      <c r="E343" s="2">
+      <c r="E343" s="3">
         <v>-117.1941153</v>
       </c>
       <c r="G343" s="1" t="s">
@@ -9529,10 +9585,10 @@
       <c r="C344" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344" s="3">
         <v>34.800053</v>
       </c>
-      <c r="E344" s="2">
+      <c r="E344" s="3">
         <v>-82.3652161</v>
       </c>
       <c r="F344" s="1" t="s">
@@ -9549,10 +9605,10 @@
       <c r="C345" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345" s="3">
         <v>24.5775148</v>
       </c>
-      <c r="E345" s="2">
+      <c r="E345" s="3">
         <v>77.7318495</v>
       </c>
       <c r="F345" s="1" t="s">
@@ -9569,10 +9625,10 @@
       <c r="C346" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346" s="3">
         <v>24.0078819</v>
       </c>
-      <c r="E346" s="2">
+      <c r="E346" s="3">
         <v>76.7278803</v>
       </c>
       <c r="F346" s="1" t="s">
@@ -9589,10 +9645,10 @@
       <c r="C347" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347" s="3">
         <v>25.4320478</v>
       </c>
-      <c r="E347" s="2">
+      <c r="E347" s="3">
         <v>77.6643814999999</v>
       </c>
       <c r="F347" s="1" t="s">
@@ -9609,10 +9665,10 @@
       <c r="C348" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348" s="3">
         <v>23.0729222</v>
       </c>
-      <c r="E348" s="2">
+      <c r="E348" s="3">
         <v>81.7787020999999</v>
       </c>
       <c r="F348" s="1" t="s">
@@ -9629,10 +9685,10 @@
       <c r="C349" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="3">
         <v>21.812876</v>
       </c>
-      <c r="E349" s="2">
+      <c r="E349" s="3">
         <v>80.1838293</v>
       </c>
       <c r="F349" s="1" t="s">
@@ -9649,10 +9705,10 @@
       <c r="C350" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="3">
         <v>26.5637768</v>
       </c>
-      <c r="E350" s="2">
+      <c r="E350" s="3">
         <v>78.7860915999999</v>
       </c>
       <c r="F350" s="1" t="s">
@@ -9669,10 +9725,10 @@
       <c r="C351" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="3">
         <v>24.9167821</v>
       </c>
-      <c r="E351" s="2">
+      <c r="E351" s="3">
         <v>79.5910058</v>
       </c>
       <c r="F351" s="1" t="s">
@@ -9689,10 +9745,10 @@
       <c r="C352" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352" s="3">
         <v>23.8323022</v>
       </c>
-      <c r="E352" s="2">
+      <c r="E352" s="3">
         <v>79.4386591</v>
       </c>
       <c r="F352" s="1" t="s">
@@ -9709,10 +9765,10 @@
       <c r="C353" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353" s="3">
         <v>25.6653168</v>
       </c>
-      <c r="E353" s="2">
+      <c r="E353" s="3">
         <v>78.4609182</v>
       </c>
       <c r="F353" s="1" t="s">
@@ -9729,10 +9785,10 @@
       <c r="C354" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354" s="3">
         <v>40.6527073</v>
       </c>
-      <c r="E354" s="2">
+      <c r="E354" s="3">
         <v>-75.4983137999999</v>
       </c>
       <c r="F354" s="1" t="s">
@@ -9749,10 +9805,10 @@
       <c r="C355" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355" s="3">
         <v>22.769666</v>
       </c>
-      <c r="E355" s="2">
+      <c r="E355" s="3">
         <v>74.5920921</v>
       </c>
       <c r="F355" s="1" t="s">
@@ -9769,10 +9825,10 @@
       <c r="C356" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356" s="3">
         <v>23.8343441</v>
       </c>
-      <c r="E356" s="2">
+      <c r="E356" s="3">
         <v>80.3893813999999</v>
       </c>
       <c r="F356" s="1" t="s">
@@ -9789,10 +9845,10 @@
       <c r="C357" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357" s="3">
         <v>22.5979218</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E357" s="3">
         <v>80.3713855</v>
       </c>
       <c r="F357" s="1" t="s">
@@ -9809,10 +9865,10 @@
       <c r="C358" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="3">
         <v>22.9473179</v>
       </c>
-      <c r="E358" s="2">
+      <c r="E358" s="3">
         <v>79.1923266</v>
       </c>
       <c r="F358" s="1" t="s">
@@ -9829,10 +9885,10 @@
       <c r="C359" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="3">
         <v>24.4737663</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E359" s="3">
         <v>74.8726497</v>
       </c>
       <c r="F359" s="1" t="s">
@@ -9849,10 +9905,10 @@
       <c r="C360" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="3">
         <v>28.3699973</v>
       </c>
-      <c r="E360" s="2">
+      <c r="E360" s="3">
         <v>-81.4270844999999</v>
       </c>
       <c r="F360" s="1" t="s">
@@ -9869,10 +9925,10 @@
       <c r="C361" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="3">
         <v>24.5339177</v>
       </c>
-      <c r="E361" s="2">
+      <c r="E361" s="3">
         <v>80.8986501999999</v>
       </c>
       <c r="F361" s="1" t="s">
@@ -9889,10 +9945,10 @@
       <c r="C362" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="3">
         <v>23.2032399</v>
       </c>
-      <c r="E362" s="2">
+      <c r="E362" s="3">
         <v>77.0844044</v>
       </c>
       <c r="F362" s="1" t="s">
@@ -9909,10 +9965,10 @@
       <c r="C363" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="3">
         <v>22.0868691</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363" s="3">
         <v>79.5434841</v>
       </c>
       <c r="F363" s="1" t="s">
@@ -9929,10 +9985,10 @@
       <c r="C364" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="3">
         <v>24.3956038</v>
       </c>
-      <c r="E364" s="2">
+      <c r="E364" s="3">
         <v>81.8825279</v>
       </c>
       <c r="F364" s="1" t="s">
@@ -9949,10 +10005,10 @@
       <c r="C365" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="3">
         <v>23.5309797</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="3">
         <v>80.8294746999999</v>
       </c>
       <c r="F365" s="1" t="s">
@@ -9969,10 +10025,10 @@
       <c r="C366" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="3">
         <v>24.1992101</v>
       </c>
-      <c r="E366" s="2">
+      <c r="E366" s="3">
         <v>82.6645468999999</v>
       </c>
       <c r="F366" s="1" t="s">
@@ -9989,10 +10045,10 @@
       <c r="C367" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="3">
         <v>25.3697238</v>
       </c>
-      <c r="E367" s="2">
+      <c r="E367" s="3">
         <v>78.7986181</v>
       </c>
       <c r="F367" s="1" t="s">
@@ -10009,10 +10065,10 @@
       <c r="C368" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="3">
         <v>19.0759837</v>
       </c>
-      <c r="E368" s="2">
+      <c r="E368" s="3">
         <v>72.8776559</v>
       </c>
       <c r="H368" s="1" t="s">
@@ -10029,10 +10085,10 @@
       <c r="C369" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="3">
         <v>18.5204303</v>
       </c>
-      <c r="E369" s="2">
+      <c r="E369" s="3">
         <v>73.8567437</v>
       </c>
       <c r="H369" s="1" t="s">
@@ -10049,10 +10105,10 @@
       <c r="C370" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="3">
         <v>19.2183307</v>
       </c>
-      <c r="E370" s="2">
+      <c r="E370" s="3">
         <v>72.9780897</v>
       </c>
       <c r="H370" s="1" t="s">
@@ -10069,10 +10125,10 @@
       <c r="C371" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="3">
         <v>19.9974533</v>
       </c>
-      <c r="E371" s="2">
+      <c r="E371" s="3">
         <v>73.7898022999999</v>
       </c>
       <c r="H371" s="1" t="s">
@@ -10089,10 +10145,10 @@
       <c r="C372" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="3">
         <v>19.6967136</v>
       </c>
-      <c r="E372" s="2">
+      <c r="E372" s="3">
         <v>72.769885</v>
       </c>
       <c r="H372" s="1" t="s">
@@ -10109,10 +10165,10 @@
       <c r="C373" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="3">
         <v>21.1458004</v>
       </c>
-      <c r="E373" s="2">
+      <c r="E373" s="3">
         <v>79.0881546</v>
       </c>
       <c r="H373" s="1" t="s">
@@ -10129,10 +10185,10 @@
       <c r="C374" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374" s="3">
         <v>17.6599188</v>
       </c>
-      <c r="E374" s="2">
+      <c r="E374" s="3">
         <v>75.9063906</v>
       </c>
       <c r="H374" s="1" t="s">
@@ -10149,10 +10205,10 @@
       <c r="C375" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375" s="3">
         <v>20.3899385</v>
       </c>
-      <c r="E375" s="2">
+      <c r="E375" s="3">
         <v>78.1306846</v>
       </c>
       <c r="H375" s="1" t="s">
@@ -10169,10 +10225,10 @@
       <c r="C376" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376" s="3">
         <v>19.8761653</v>
       </c>
-      <c r="E376" s="2">
+      <c r="E376" s="3">
         <v>75.3433139</v>
       </c>
       <c r="H376" s="1" t="s">
@@ -10189,10 +10245,10 @@
       <c r="C377" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377" s="3">
         <v>43.0930295</v>
       </c>
-      <c r="E377" s="2">
+      <c r="E377" s="3">
         <v>-89.4914991</v>
       </c>
       <c r="H377" s="1" t="s">
@@ -10209,10 +10265,10 @@
       <c r="C378" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" s="3">
         <v>20.9042201</v>
       </c>
-      <c r="E378" s="2">
+      <c r="E378" s="3">
         <v>74.7748979</v>
       </c>
       <c r="H378" s="1" t="s">
@@ -10229,10 +10285,10 @@
       <c r="C379" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379" s="3">
         <v>32.8491858</v>
       </c>
-      <c r="E379" s="2">
+      <c r="E379" s="3">
         <v>-96.7882087</v>
       </c>
       <c r="H379" s="1" t="s">
@@ -10249,10 +10305,10 @@
       <c r="C380" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" s="3">
         <v>21.0076578</v>
       </c>
-      <c r="E380" s="2">
+      <c r="E380" s="3">
         <v>75.5626039</v>
       </c>
       <c r="H380" s="1" t="s">
@@ -10269,10 +10325,10 @@
       <c r="C381" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="3">
         <v>19.1538231</v>
       </c>
-      <c r="E381" s="2">
+      <c r="E381" s="3">
         <v>72.8751786</v>
       </c>
       <c r="H381" s="1" t="s">
@@ -10289,10 +10345,10 @@
       <c r="C382" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382" s="3">
         <v>18.2346858</v>
       </c>
-      <c r="E382" s="2">
+      <c r="E382" s="3">
         <v>73.4464443999999</v>
       </c>
       <c r="G382" s="1" t="s">
@@ -10309,10 +10365,10 @@
       <c r="C383" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="3">
         <v>19.0948287</v>
       </c>
-      <c r="E383" s="2">
+      <c r="E383" s="3">
         <v>74.7479788999999</v>
       </c>
       <c r="G383" s="1" t="s">
@@ -10329,10 +10385,10 @@
       <c r="C384" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384" s="3">
         <v>20.9319821</v>
       </c>
-      <c r="E384" s="2">
+      <c r="E384" s="3">
         <v>77.7523039</v>
       </c>
       <c r="G384" s="1" t="s">
@@ -10349,10 +10405,10 @@
       <c r="C385" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385" s="3">
         <v>20.5292147</v>
       </c>
-      <c r="E385" s="2">
+      <c r="E385" s="3">
         <v>76.1841701</v>
       </c>
       <c r="G385" s="1" t="s">
@@ -10369,10 +10425,10 @@
       <c r="C386" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" s="3">
         <v>21.7468548</v>
       </c>
-      <c r="E386" s="2">
+      <c r="E386" s="3">
         <v>74.1239959999999</v>
       </c>
       <c r="G386" s="1" t="s">
@@ -10389,10 +10445,10 @@
       <c r="C387" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387" s="3">
         <v>16.7049873</v>
       </c>
-      <c r="E387" s="2">
+      <c r="E387" s="3">
         <v>74.2432527</v>
       </c>
       <c r="G387" s="1" t="s">
@@ -10409,10 +10465,10 @@
       <c r="C388" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388" s="3">
         <v>19.7173703</v>
       </c>
-      <c r="E388" s="2">
+      <c r="E388" s="3">
         <v>77.1493722</v>
       </c>
       <c r="G388" s="1" t="s">
@@ -10429,10 +10485,10 @@
       <c r="C389" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389" s="3">
         <v>16.990215</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E389" s="3">
         <v>73.3120232999999</v>
       </c>
       <c r="G389" s="1" t="s">
@@ -10449,10 +10505,10 @@
       <c r="C390" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390" s="3">
         <v>19.8346659</v>
       </c>
-      <c r="E390" s="2">
+      <c r="E390" s="3">
         <v>75.8816344999999</v>
       </c>
       <c r="G390" s="1" t="s">
@@ -10469,10 +10525,10 @@
       <c r="C391" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391" s="3">
         <v>19.1382514</v>
       </c>
-      <c r="E391" s="2">
+      <c r="E391" s="3">
         <v>77.3209555</v>
       </c>
       <c r="G391" s="1" t="s">
@@ -10489,10 +10545,10 @@
       <c r="C392" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392" s="3">
         <v>19.9615398</v>
       </c>
-      <c r="E392" s="2">
+      <c r="E392" s="3">
         <v>79.2961468</v>
       </c>
       <c r="G392" s="1" t="s">
@@ -10509,10 +10565,10 @@
       <c r="C393" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393" s="3">
         <v>19.2608384</v>
       </c>
-      <c r="E393" s="2">
+      <c r="E393" s="3">
         <v>76.774776</v>
       </c>
       <c r="G393" s="1" t="s">
@@ -10529,10 +10585,10 @@
       <c r="C394" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394" s="3">
         <v>16.8523973</v>
       </c>
-      <c r="E394" s="2">
+      <c r="E394" s="3">
         <v>74.5814773</v>
       </c>
       <c r="G394" s="1" t="s">
@@ -10549,10 +10605,10 @@
       <c r="C395" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395" s="3">
         <v>18.4087934</v>
       </c>
-      <c r="E395" s="2">
+      <c r="E395" s="3">
         <v>76.5603828</v>
       </c>
       <c r="G395" s="1" t="s">
@@ -10569,10 +10625,10 @@
       <c r="C396" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396" s="3">
         <v>21.177658</v>
       </c>
-      <c r="E396" s="2">
+      <c r="E396" s="3">
         <v>79.6570127</v>
       </c>
       <c r="G396" s="1" t="s">
@@ -10589,10 +10645,10 @@
       <c r="C397" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397" s="3">
         <v>18.990088</v>
       </c>
-      <c r="E397" s="2">
+      <c r="E397" s="3">
         <v>75.7531324</v>
       </c>
       <c r="G397" s="1" t="s">
@@ -10609,10 +10665,10 @@
       <c r="C398" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398" s="3">
         <v>18.2069636</v>
       </c>
-      <c r="E398" s="2">
+      <c r="E398" s="3">
         <v>76.1783739</v>
       </c>
       <c r="F398" s="1" t="s">
@@ -10629,10 +10685,10 @@
       <c r="C399" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399" s="3">
         <v>20.1119123</v>
       </c>
-      <c r="E399" s="2">
+      <c r="E399" s="3">
         <v>77.1312586</v>
       </c>
       <c r="F399" s="1" t="s">
@@ -10649,10 +10705,10 @@
       <c r="C400" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400" s="3">
         <v>16.3492193</v>
       </c>
-      <c r="E400" s="2">
+      <c r="E400" s="3">
         <v>73.5594127999999</v>
       </c>
       <c r="F400" s="1" t="s">
@@ -10669,10 +10725,10 @@
       <c r="C401" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401" s="3">
         <v>21.4549477</v>
       </c>
-      <c r="E401" s="2">
+      <c r="E401" s="3">
         <v>80.1960711999999</v>
       </c>
       <c r="F401" s="1" t="s">
@@ -10689,10 +10745,10 @@
       <c r="C402" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402" s="3">
         <v>20.184871</v>
       </c>
-      <c r="E402" s="2">
+      <c r="E402" s="3">
         <v>79.9947956</v>
       </c>
       <c r="F402" s="1" t="s">
@@ -10709,10 +10765,10 @@
       <c r="C403" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403" s="3">
         <v>20.745319</v>
       </c>
-      <c r="E403" s="2">
+      <c r="E403" s="3">
         <v>78.6021945999999</v>
       </c>
       <c r="F403" s="1" t="s">
@@ -10729,10 +10785,10 @@
       <c r="C404" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="3">
         <v>24.7827837</v>
       </c>
-      <c r="E404" s="2">
+      <c r="E404" s="3">
         <v>93.8858954999999</v>
       </c>
       <c r="F404" s="1" t="s">
@@ -10749,10 +10805,10 @@
       <c r="C405" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" s="3">
         <v>24.5435506</v>
       </c>
-      <c r="E405" s="2">
+      <c r="E405" s="3">
         <v>93.9674371</v>
       </c>
       <c r="F405" s="1" t="s">
@@ -10769,10 +10825,10 @@
       <c r="C406" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" s="3">
         <v>23.067179</v>
       </c>
-      <c r="E406" s="2">
+      <c r="E406" s="3">
         <v>87.3214680999999</v>
       </c>
       <c r="F406" s="1" t="s">
@@ -10789,10 +10845,10 @@
       <c r="C407" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407" s="3">
         <v>24.3262003</v>
       </c>
-      <c r="E407" s="2">
+      <c r="E407" s="3">
         <v>94.0006003</v>
       </c>
       <c r="F407" s="1" t="s">
@@ -10809,10 +10865,10 @@
       <c r="C408" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D408" s="2">
+      <c r="D408" s="3">
         <v>24.2993576</v>
       </c>
-      <c r="E408" s="2">
+      <c r="E408" s="3">
         <v>93.2583626</v>
       </c>
       <c r="F408" s="1" t="s">
@@ -10829,10 +10885,10 @@
       <c r="C409" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409" s="3">
         <v>24.7806536</v>
       </c>
-      <c r="E409" s="2">
+      <c r="E409" s="3">
         <v>93.9674371</v>
       </c>
       <c r="F409" s="1" t="s">
@@ -10849,10 +10905,10 @@
       <c r="C410" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410" s="3">
         <v>25.2677276</v>
       </c>
-      <c r="E410" s="2">
+      <c r="E410" s="3">
         <v>94.0210189</v>
       </c>
       <c r="F410" s="1" t="s">
@@ -10869,10 +10925,10 @@
       <c r="C411" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411" s="3">
         <v>24.9879342</v>
       </c>
-      <c r="E411" s="2">
+      <c r="E411" s="3">
         <v>93.4952919999999</v>
       </c>
       <c r="F411" s="1" t="s">
@@ -10889,10 +10945,10 @@
       <c r="C412" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412" s="3">
         <v>24.9320611</v>
       </c>
-      <c r="E412" s="2">
+      <c r="E412" s="3">
         <v>94.479976</v>
       </c>
       <c r="F412" s="1" t="s">
@@ -10909,10 +10965,10 @@
       <c r="C413" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D413" s="3">
         <v>24.496869</v>
       </c>
-      <c r="E413" s="2">
+      <c r="E413" s="3">
         <v>93.9830528999999</v>
       </c>
       <c r="F413" s="1" t="s">
@@ -10929,10 +10985,10 @@
       <c r="C414" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D414" s="3">
         <v>25.1519197</v>
       </c>
-      <c r="E414" s="2">
+      <c r="E414" s="3">
         <v>93.969963</v>
       </c>
       <c r="F414" s="1" t="s">
@@ -10949,10 +11005,10 @@
       <c r="C415" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D415" s="2">
+      <c r="D415" s="3">
         <v>24.7864347</v>
       </c>
-      <c r="E415" s="2">
+      <c r="E415" s="3">
         <v>93.1538899</v>
       </c>
       <c r="F415" s="1" t="s">
@@ -10969,10 +11025,10 @@
       <c r="C416" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416" s="3">
         <v>24.8546947</v>
       </c>
-      <c r="E416" s="2">
+      <c r="E416" s="3">
         <v>93.6167146</v>
       </c>
       <c r="F416" s="1" t="s">
@@ -10989,10 +11045,10 @@
       <c r="C417" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417" s="3">
         <v>24.263712</v>
       </c>
-      <c r="E417" s="2">
+      <c r="E417" s="3">
         <v>93.1892637</v>
       </c>
       <c r="F417" s="1" t="s">
@@ -11009,10 +11065,10 @@
       <c r="C418" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418" s="3">
         <v>24.383792</v>
       </c>
-      <c r="E418" s="2">
+      <c r="E418" s="3">
         <v>94.1481775</v>
       </c>
       <c r="F418" s="1" t="s">
@@ -11029,10 +11085,10 @@
       <c r="C419" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D419" s="3">
         <v>24.8570444</v>
       </c>
-      <c r="E419" s="2">
+      <c r="E419" s="3">
         <v>94.5134629</v>
       </c>
       <c r="F419" s="1" t="s">
@@ -11049,10 +11105,10 @@
       <c r="C420" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420" s="3">
         <v>25.3681768</v>
       </c>
-      <c r="E420" s="2">
+      <c r="E420" s="3">
         <v>91.7538817</v>
       </c>
       <c r="G420" s="1" t="s">
@@ -11069,10 +11125,10 @@
       <c r="C421" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D421" s="3">
         <v>25.5671692</v>
       </c>
-      <c r="E421" s="2">
+      <c r="E421" s="3">
         <v>90.5257822999999</v>
       </c>
       <c r="F421" s="1" t="s">
@@ -11089,10 +11145,10 @@
       <c r="C422" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422" s="3">
         <v>25.5021272</v>
       </c>
-      <c r="E422" s="2">
+      <c r="E422" s="3">
         <v>92.341887</v>
       </c>
       <c r="F422" s="1" t="s">
@@ -11109,10 +11165,10 @@
       <c r="C423" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D423" s="2">
+      <c r="D423" s="3">
         <v>25.8431574</v>
       </c>
-      <c r="E423" s="2">
+      <c r="E423" s="3">
         <v>91.985621</v>
       </c>
       <c r="F423" s="1" t="s">
@@ -11129,10 +11185,10 @@
       <c r="C424" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424" s="3">
         <v>25.3300969</v>
       </c>
-      <c r="E424" s="2">
+      <c r="E424" s="3">
         <v>90.563609</v>
       </c>
       <c r="F424" s="1" t="s">
@@ -11149,10 +11205,10 @@
       <c r="C425" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D425" s="2">
+      <c r="D425" s="3">
         <v>25.5679372</v>
       </c>
-      <c r="E425" s="2">
+      <c r="E425" s="3">
         <v>90.2244662</v>
       </c>
       <c r="F425" s="1" t="s">
@@ -11169,10 +11225,10 @@
       <c r="C426" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426" s="3">
         <v>25.5624625</v>
       </c>
-      <c r="E426" s="2">
+      <c r="E426" s="3">
         <v>91.2891035999999</v>
       </c>
       <c r="F426" s="1" t="s">
@@ -11189,10 +11245,10 @@
       <c r="C427" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427" s="3">
         <v>25.8986758</v>
       </c>
-      <c r="E427" s="2">
+      <c r="E427" s="3">
         <v>90.4879916</v>
       </c>
       <c r="F427" s="1" t="s">
@@ -11209,10 +11265,10 @@
       <c r="C428" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" s="3">
         <v>25.3100768</v>
       </c>
-      <c r="E428" s="2">
+      <c r="E428" s="3">
         <v>92.4999917999999</v>
       </c>
       <c r="F428" s="1" t="s">
@@ -11229,10 +11285,10 @@
       <c r="C429" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429" s="3">
         <v>25.3258908</v>
       </c>
-      <c r="E429" s="2">
+      <c r="E429" s="3">
         <v>91.2506002</v>
       </c>
       <c r="F429" s="1" t="s">
@@ -11249,10 +11305,10 @@
       <c r="C430" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430" s="3">
         <v>25.5679372</v>
       </c>
-      <c r="E430" s="2">
+      <c r="E430" s="3">
         <v>90.2244662</v>
       </c>
       <c r="F430" s="1" t="s">
@@ -11269,10 +11325,10 @@
       <c r="C431" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431" s="3">
         <v>23.7307175</v>
       </c>
-      <c r="E431" s="2">
+      <c r="E431" s="3">
         <v>92.7173105999999</v>
       </c>
       <c r="F431" s="1" t="s">
@@ -11289,10 +11345,10 @@
       <c r="C432" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432" s="3">
         <v>23.4565708</v>
       </c>
-      <c r="E432" s="2">
+      <c r="E432" s="3">
         <v>93.3281928999999</v>
       </c>
       <c r="F432" s="1" t="s">
@@ -11309,10 +11365,10 @@
       <c r="C433" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433" s="3">
         <v>24.224565</v>
       </c>
-      <c r="E433" s="2">
+      <c r="E433" s="3">
         <v>92.6760250999999</v>
       </c>
       <c r="F433" s="1" t="s">
@@ -11329,10 +11385,10 @@
       <c r="C434" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434" s="3">
         <v>22.5284445</v>
       </c>
-      <c r="E434" s="2">
+      <c r="E434" s="3">
         <v>92.8926341999999</v>
       </c>
       <c r="F434" s="1" t="s">
@@ -11349,10 +11405,10 @@
       <c r="C435" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435" s="3">
         <v>22.8670691</v>
       </c>
-      <c r="E435" s="2">
+      <c r="E435" s="3">
         <v>92.7655358</v>
       </c>
       <c r="F435" s="1" t="s">
@@ -11369,10 +11425,10 @@
       <c r="C436" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436" s="3">
         <v>23.9294441</v>
       </c>
-      <c r="E436" s="2">
+      <c r="E436" s="3">
         <v>92.4905706999999</v>
       </c>
       <c r="F436" s="1" t="s">
@@ -11389,10 +11445,10 @@
       <c r="C437" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437" s="3">
         <v>22.489734</v>
       </c>
-      <c r="E437" s="2">
+      <c r="E437" s="3">
         <v>92.979269</v>
       </c>
       <c r="F437" s="1" t="s">
@@ -11409,10 +11465,10 @@
       <c r="C438" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438" s="3">
         <v>23.3416578</v>
       </c>
-      <c r="E438" s="2">
+      <c r="E438" s="3">
         <v>92.8502302</v>
       </c>
       <c r="F438" s="1" t="s">
@@ -11429,10 +11485,10 @@
       <c r="C439" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439" s="3">
         <v>22.9653238</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E439" s="3">
         <v>92.930081</v>
       </c>
       <c r="F439" s="1" t="s">
@@ -11449,10 +11505,10 @@
       <c r="C440" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="3">
         <v>23.9704247</v>
       </c>
-      <c r="E440" s="2">
+      <c r="E440" s="3">
         <v>92.5758398999999</v>
       </c>
       <c r="F440" s="1" t="s">
@@ -11469,10 +11525,10 @@
       <c r="C441" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="3">
         <v>23.5344974</v>
       </c>
-      <c r="E441" s="2">
+      <c r="E441" s="3">
         <v>93.1829868</v>
       </c>
       <c r="F441" s="1" t="s">
@@ -11489,10 +11545,10 @@
       <c r="C442" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442" s="3">
         <v>25.9091406</v>
       </c>
-      <c r="E442" s="2">
+      <c r="E442" s="3">
         <v>93.7265604999999</v>
       </c>
       <c r="F442" s="1" t="s">
@@ -11509,10 +11565,10 @@
       <c r="C443" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D443" s="2">
+      <c r="D443" s="3">
         <v>25.6751129</v>
       </c>
-      <c r="E443" s="2">
+      <c r="E443" s="3">
         <v>94.1085998</v>
       </c>
       <c r="F443" s="1" t="s">
@@ -11529,10 +11585,10 @@
       <c r="C444" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D444" s="3">
         <v>26.3220358</v>
       </c>
-      <c r="E444" s="2">
+      <c r="E444" s="3">
         <v>94.5134629</v>
       </c>
       <c r="F444" s="1" t="s">
@@ -11549,10 +11605,10 @@
       <c r="C445" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="3">
         <v>16.3003133</v>
       </c>
-      <c r="E445" s="2">
+      <c r="E445" s="3">
         <v>97.6982271999999</v>
       </c>
       <c r="F445" s="1" t="s">
@@ -11569,10 +11625,10 @@
       <c r="C446" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D446" s="2">
+      <c r="D446" s="3">
         <v>25.6634215</v>
       </c>
-      <c r="E446" s="2">
+      <c r="E446" s="3">
         <v>94.4703201999999</v>
       </c>
       <c r="F446" s="1" t="s">
@@ -11589,10 +11645,10 @@
       <c r="C447" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447" s="3">
         <v>26.2357422</v>
       </c>
-      <c r="E447" s="2">
+      <c r="E447" s="3">
         <v>94.8131863</v>
       </c>
       <c r="F447" s="1" t="s">
@@ -11609,10 +11665,10 @@
       <c r="C448" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448" s="3">
         <v>26.0910351</v>
       </c>
-      <c r="E448" s="2">
+      <c r="E448" s="3">
         <v>94.2589737999999</v>
       </c>
       <c r="F448" s="1" t="s">
@@ -11629,10 +11685,10 @@
       <c r="C449" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449" s="3">
         <v>26.0092831</v>
       </c>
-      <c r="E449" s="2">
+      <c r="E449" s="3">
         <v>94.5237707</v>
       </c>
       <c r="F449" s="1" t="s">
@@ -11649,10 +11705,10 @@
       <c r="C450" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D450" s="3">
         <v>25.5225378</v>
       </c>
-      <c r="E450" s="2">
+      <c r="E450" s="3">
         <v>93.6623238999999</v>
       </c>
       <c r="F450" s="1" t="s">
@@ -11669,10 +11725,10 @@
       <c r="C451" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451" s="3">
         <v>25.8689085</v>
       </c>
-      <c r="E451" s="2">
+      <c r="E451" s="3">
         <v>94.7853411999999</v>
       </c>
       <c r="F451" s="1" t="s">
@@ -11689,10 +11745,10 @@
       <c r="C452" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452" s="3">
         <v>26.4901992</v>
       </c>
-      <c r="E452" s="2">
+      <c r="E452" s="3">
         <v>94.8196639999999</v>
       </c>
       <c r="F452" s="1" t="s">
@@ -11709,10 +11765,10 @@
       <c r="C453" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453" s="3">
         <v>20.8341019</v>
       </c>
-      <c r="E453" s="2">
+      <c r="E453" s="3">
         <v>86.3326058</v>
       </c>
       <c r="H453" s="1" t="s">
@@ -11729,10 +11785,10 @@
       <c r="C454" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D454" s="2">
+      <c r="D454" s="3">
         <v>21.0573616</v>
       </c>
-      <c r="E454" s="2">
+      <c r="E454" s="3">
         <v>86.4962996</v>
       </c>
       <c r="H454" s="1" t="s">
@@ -11749,10 +11805,10 @@
       <c r="C455" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D455" s="2">
+      <c r="D455" s="3">
         <v>23.0831721</v>
       </c>
-      <c r="E455" s="2">
+      <c r="E455" s="3">
         <v>72.5439806</v>
       </c>
       <c r="H455" s="1" t="s">
@@ -11769,10 +11825,10 @@
       <c r="C456" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D456" s="2">
+      <c r="D456" s="3">
         <v>20.130141</v>
       </c>
-      <c r="E456" s="2">
+      <c r="E456" s="3">
         <v>85.4788064999999</v>
       </c>
       <c r="G456" s="1" t="s">
@@ -11789,10 +11845,10 @@
       <c r="C457" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="3">
         <v>22.1240025</v>
       </c>
-      <c r="E457" s="2">
+      <c r="E457" s="3">
         <v>84.043175</v>
       </c>
       <c r="G457" s="1" t="s">
@@ -11809,10 +11865,10 @@
       <c r="C458" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458" s="3">
         <v>20.4969108</v>
       </c>
-      <c r="E458" s="2">
+      <c r="E458" s="3">
         <v>86.4288534</v>
       </c>
       <c r="G458" s="1" t="s">
@@ -11829,10 +11885,10 @@
       <c r="C459" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459" s="3">
         <v>18.813487</v>
       </c>
-      <c r="E459" s="2">
+      <c r="E459" s="3">
         <v>82.7123326999999</v>
       </c>
       <c r="G459" s="1" t="s">
@@ -11849,10 +11905,10 @@
       <c r="C460" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D460" s="2">
+      <c r="D460" s="3">
         <v>20.6504753</v>
       </c>
-      <c r="E460" s="2">
+      <c r="E460" s="3">
         <v>85.5981223</v>
       </c>
       <c r="G460" s="1" t="s">
@@ -11869,10 +11925,10 @@
       <c r="C461" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461" s="3">
         <v>19.9137363</v>
       </c>
-      <c r="E461" s="2">
+      <c r="E461" s="3">
         <v>83.1649001</v>
       </c>
       <c r="G461" s="1" t="s">
@@ -11889,10 +11945,10 @@
       <c r="C462" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462" s="3">
         <v>20.462521</v>
       </c>
-      <c r="E462" s="2">
+      <c r="E462" s="3">
         <v>85.8829895</v>
       </c>
       <c r="F462" s="1" t="s">
@@ -11909,10 +11965,10 @@
       <c r="C463" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463" s="3">
         <v>19.8134554</v>
       </c>
-      <c r="E463" s="2">
+      <c r="E463" s="3">
         <v>85.8312359</v>
       </c>
       <c r="F463" s="1" t="s">
@@ -11929,10 +11985,10 @@
       <c r="C464" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464" s="3">
         <v>20.8444033</v>
       </c>
-      <c r="E464" s="2">
+      <c r="E464" s="3">
         <v>85.1510818</v>
       </c>
       <c r="F464" s="1" t="s">
@@ -11949,10 +12005,10 @@
       <c r="C465" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465" s="3">
         <v>20.7011108</v>
       </c>
-      <c r="E465" s="2">
+      <c r="E465" s="3">
         <v>83.4846069</v>
       </c>
       <c r="F465" s="1" t="s">
@@ -11969,10 +12025,10 @@
       <c r="C466" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="3">
         <v>21.3470154</v>
       </c>
-      <c r="E466" s="2">
+      <c r="E466" s="3">
         <v>83.6320212</v>
       </c>
       <c r="F466" s="1" t="s">
@@ -11989,10 +12045,10 @@
       <c r="C467" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D467" s="2">
+      <c r="D467" s="3">
         <v>20.6607447</v>
       </c>
-      <c r="E467" s="2">
+      <c r="E467" s="3">
         <v>84.1435135999999</v>
       </c>
       <c r="F467" s="1" t="s">
@@ -12009,10 +12065,10 @@
       <c r="C468" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D468" s="2">
+      <c r="D468" s="3">
         <v>21.5383136</v>
       </c>
-      <c r="E468" s="2">
+      <c r="E468" s="3">
         <v>84.7289442</v>
       </c>
       <c r="F468" s="1" t="s">
@@ -12029,10 +12085,10 @@
       <c r="C469" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D469" s="2">
+      <c r="D469" s="3">
         <v>19.1912221</v>
       </c>
-      <c r="E469" s="2">
+      <c r="E469" s="3">
         <v>84.1857115</v>
       </c>
       <c r="F469" s="1" t="s">
@@ -12049,10 +12105,10 @@
       <c r="C470" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="D470" s="2">
+      <c r="D470" s="3">
         <v>19.387389</v>
       </c>
-      <c r="E470" s="2">
+      <c r="E470" s="3">
         <v>85.0515413</v>
       </c>
       <c r="F470" s="1" t="s">
@@ -12069,10 +12125,10 @@
       <c r="C471" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D471" s="2">
+      <c r="D471" s="3">
         <v>20.2548998</v>
       </c>
-      <c r="E471" s="2">
+      <c r="E471" s="3">
         <v>86.1706221</v>
       </c>
       <c r="F471" s="1" t="s">
@@ -12089,10 +12145,10 @@
       <c r="C472" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D472" s="2">
+      <c r="D472" s="3">
         <v>21.8554375</v>
       </c>
-      <c r="E472" s="2">
+      <c r="E472" s="3">
         <v>84.0061661</v>
       </c>
       <c r="F472" s="1" t="s">
@@ -12109,10 +12165,10 @@
       <c r="C473" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D473" s="2">
+      <c r="D473" s="3">
         <v>20.1342042</v>
       </c>
-      <c r="E473" s="2">
+      <c r="E473" s="3">
         <v>84.0167422999999</v>
       </c>
       <c r="F473" s="1" t="s">
@@ -12129,10 +12185,10 @@
       <c r="C474" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474" s="3">
         <v>21.628933</v>
       </c>
-      <c r="E474" s="2">
+      <c r="E474" s="3">
         <v>85.5816847</v>
       </c>
       <c r="F474" s="1" t="s">
@@ -12149,10 +12205,10 @@
       <c r="C475" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D475" s="3">
         <v>18.1640803</v>
       </c>
-      <c r="E475" s="2">
+      <c r="E475" s="3">
         <v>81.9534815</v>
       </c>
       <c r="F475" s="1" t="s">
@@ -12169,10 +12225,10 @@
       <c r="C476" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D476" s="2">
+      <c r="D476" s="3">
         <v>22.0086978</v>
       </c>
-      <c r="E476" s="2">
+      <c r="E476" s="3">
         <v>86.4187307999999</v>
       </c>
       <c r="F476" s="1" t="s">
@@ -12189,10 +12245,10 @@
       <c r="C477" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D477" s="2">
+      <c r="D477" s="3">
         <v>19.2281434</v>
       </c>
-      <c r="E477" s="2">
+      <c r="E477" s="3">
         <v>82.5469897999999</v>
       </c>
       <c r="F477" s="1" t="s">
@@ -12209,10 +12265,10 @@
       <c r="C478" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D478" s="2">
+      <c r="D478" s="3">
         <v>20.1231332</v>
       </c>
-      <c r="E478" s="2">
+      <c r="E478" s="3">
         <v>85.1038426</v>
       </c>
       <c r="F478" s="1" t="s">
@@ -12229,10 +12285,10 @@
       <c r="C479" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D479" s="3">
         <v>20.5070532</v>
       </c>
-      <c r="E479" s="2">
+      <c r="E479" s="3">
         <v>82.605118</v>
       </c>
       <c r="F479" s="1" t="s">
@@ -12249,10 +12305,10 @@
       <c r="C480" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D480" s="2">
+      <c r="D480" s="3">
         <v>19.171209</v>
       </c>
-      <c r="E480" s="2">
+      <c r="E480" s="3">
         <v>83.4163226</v>
       </c>
       <c r="F480" s="1" t="s">
@@ -12269,10 +12325,10 @@
       <c r="C481" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D481" s="2">
+      <c r="D481" s="3">
         <v>21.4668716</v>
       </c>
-      <c r="E481" s="2">
+      <c r="E481" s="3">
         <v>83.9811665</v>
       </c>
       <c r="F481" s="1" t="s">
@@ -12289,10 +12345,10 @@
       <c r="C482" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D482" s="2">
+      <c r="D482" s="3">
         <v>20.8480141</v>
       </c>
-      <c r="E482" s="2">
+      <c r="E482" s="3">
         <v>83.8950042</v>
       </c>
       <c r="F482" s="1" t="s">
@@ -12309,10 +12365,10 @@
       <c r="C483" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D483" s="2">
+      <c r="D483" s="3">
         <v>11.9415915</v>
       </c>
-      <c r="E483" s="2">
+      <c r="E483" s="3">
         <v>79.8083133</v>
       </c>
       <c r="G483" s="1" t="s">
@@ -12329,10 +12385,10 @@
       <c r="C484" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D484" s="2">
+      <c r="D484" s="3">
         <v>10.9254398</v>
       </c>
-      <c r="E484" s="2">
+      <c r="E484" s="3">
         <v>79.8380056</v>
       </c>
       <c r="F484" s="1" t="s">
@@ -12349,10 +12405,10 @@
       <c r="C485" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D485" s="2">
+      <c r="D485" s="3">
         <v>-4.6826693</v>
       </c>
-      <c r="E485" s="2">
+      <c r="E485" s="3">
         <v>55.480396</v>
       </c>
       <c r="F485" s="1" t="s">
@@ -12369,10 +12425,10 @@
       <c r="C486" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D486" s="2">
+      <c r="D486" s="3">
         <v>16.7271912</v>
       </c>
-      <c r="E486" s="2">
+      <c r="E486" s="3">
         <v>82.2175774999999</v>
       </c>
       <c r="F486" s="1" t="s">
@@ -12389,10 +12445,10 @@
       <c r="C487" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D487" s="2">
+      <c r="D487" s="3">
         <v>31.3260152</v>
       </c>
-      <c r="E487" s="2">
+      <c r="E487" s="3">
         <v>75.5761828999999</v>
       </c>
       <c r="H487" s="1" t="s">
@@ -12409,10 +12465,10 @@
       <c r="C488" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D488" s="2">
+      <c r="D488" s="3">
         <v>30.3397809</v>
       </c>
-      <c r="E488" s="2">
+      <c r="E488" s="3">
         <v>76.3868797</v>
       </c>
       <c r="H488" s="1" t="s">
@@ -12429,10 +12485,10 @@
       <c r="C489" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D489" s="2">
+      <c r="D489" s="3">
         <v>30.900965</v>
       </c>
-      <c r="E489" s="2">
+      <c r="E489" s="3">
         <v>75.8572758</v>
       </c>
       <c r="H489" s="1" t="s">
@@ -12449,10 +12505,10 @@
       <c r="C490" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D490" s="2">
+      <c r="D490" s="3">
         <v>30.6496486</v>
       </c>
-      <c r="E490" s="2">
+      <c r="E490" s="3">
         <v>76.7567368</v>
       </c>
       <c r="G490" s="1" t="s">
@@ -12469,10 +12525,10 @@
       <c r="C491" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D491" s="2">
+      <c r="D491" s="3">
         <v>32.2733352</v>
       </c>
-      <c r="E491" s="2">
+      <c r="E491" s="3">
         <v>75.6522066</v>
       </c>
       <c r="G491" s="1" t="s">
@@ -12489,10 +12545,10 @@
       <c r="C492" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D492" s="2">
+      <c r="D492" s="3">
         <v>38.9888763</v>
       </c>
-      <c r="E492" s="2">
+      <c r="E492" s="3">
         <v>-77.0014315</v>
       </c>
       <c r="G492" s="1" t="s">
@@ -12509,10 +12565,10 @@
       <c r="C493" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D493" s="2">
+      <c r="D493" s="3">
         <v>31.4538668</v>
       </c>
-      <c r="E493" s="2">
+      <c r="E493" s="3">
         <v>74.9267599</v>
       </c>
       <c r="G493" s="1" t="s">
@@ -12529,10 +12585,10 @@
       <c r="C494" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D494" s="2">
+      <c r="D494" s="3">
         <v>31.6339793</v>
       </c>
-      <c r="E494" s="2">
+      <c r="E494" s="3">
         <v>74.8722642</v>
       </c>
       <c r="G494" s="1" t="s">
@@ -12549,10 +12605,10 @@
       <c r="C495" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D495" s="2">
+      <c r="D495" s="3">
         <v>31.3722571</v>
       </c>
-      <c r="E495" s="2">
+      <c r="E495" s="3">
         <v>75.4017654</v>
       </c>
       <c r="G495" s="1" t="s">
@@ -12569,10 +12625,10 @@
       <c r="C496" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D496" s="2">
+      <c r="D496" s="3">
         <v>31.5143178</v>
       </c>
-      <c r="E496" s="2">
+      <c r="E496" s="3">
         <v>75.911483</v>
       </c>
       <c r="G496" s="1" t="s">
@@ -12589,10 +12645,10 @@
       <c r="C497" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D497" s="2">
+      <c r="D497" s="3">
         <v>30.6769462</v>
       </c>
-      <c r="E497" s="2">
+      <c r="E497" s="3">
         <v>74.7583351</v>
       </c>
       <c r="G497" s="1" t="s">
@@ -12609,10 +12665,10 @@
       <c r="C498" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D498" s="2">
+      <c r="D498" s="3">
         <v>30.2457963</v>
       </c>
-      <c r="E498" s="2">
+      <c r="E498" s="3">
         <v>75.8420716</v>
       </c>
       <c r="G498" s="1" t="s">
@@ -12629,10 +12685,10 @@
       <c r="C499" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D499" s="2">
+      <c r="D499" s="3">
         <v>31.1255583</v>
       </c>
-      <c r="E499" s="2">
+      <c r="E499" s="3">
         <v>76.118642</v>
       </c>
       <c r="G499" s="1" t="s">
@@ -12649,10 +12705,10 @@
       <c r="C500" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D500" s="2">
+      <c r="D500" s="3">
         <v>30.9331348</v>
       </c>
-      <c r="E500" s="2">
+      <c r="E500" s="3">
         <v>74.6224755</v>
       </c>
       <c r="G500" s="1" t="s">
@@ -12669,10 +12725,10 @@
       <c r="C501" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D501" s="2">
+      <c r="D501" s="3">
         <v>30.4761773</v>
       </c>
-      <c r="E501" s="2">
+      <c r="E501" s="3">
         <v>74.5121599</v>
       </c>
       <c r="H501" s="1" t="s">
@@ -12689,10 +12745,10 @@
       <c r="C502" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D502" s="2">
+      <c r="D502" s="3">
         <v>35.0897589</v>
       </c>
-      <c r="E502" s="2">
+      <c r="E502" s="3">
         <v>-89.8079106</v>
       </c>
       <c r="G502" s="1" t="s">
@@ -12709,10 +12765,10 @@
       <c r="C503" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D503" s="2">
+      <c r="D503" s="3">
         <v>32.0413917</v>
       </c>
-      <c r="E503" s="2">
+      <c r="E503" s="3">
         <v>75.403086</v>
       </c>
       <c r="G503" s="1" t="s">
@@ -12729,10 +12785,10 @@
       <c r="C504" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D504" s="2">
+      <c r="D504" s="3">
         <v>30.3819446</v>
       </c>
-      <c r="E504" s="2">
+      <c r="E504" s="3">
         <v>75.5467979</v>
       </c>
       <c r="G504" s="1" t="s">
@@ -12749,10 +12805,10 @@
       <c r="C505" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D505" s="2">
+      <c r="D505" s="3">
         <v>30.9661003</v>
       </c>
-      <c r="E505" s="2">
+      <c r="E505" s="3">
         <v>76.5230961</v>
       </c>
       <c r="F505" s="1" t="s">
@@ -12769,10 +12825,10 @@
       <c r="C506" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D506" s="2">
+      <c r="D506" s="3">
         <v>30.6435345</v>
       </c>
-      <c r="E506" s="2">
+      <c r="E506" s="3">
         <v>76.39703</v>
       </c>
       <c r="F506" s="1" t="s">
@@ -12789,10 +12845,10 @@
       <c r="C507" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D507" s="2">
+      <c r="D507" s="3">
         <v>30.210994</v>
       </c>
-      <c r="E507" s="2">
+      <c r="E507" s="3">
         <v>74.9454745</v>
       </c>
       <c r="F507" s="1" t="s">
@@ -12809,10 +12865,10 @@
       <c r="C508" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D508" s="2">
+      <c r="D508" s="3">
         <v>30.4036478</v>
       </c>
-      <c r="E508" s="2">
+      <c r="E508" s="3">
         <v>74.0279621</v>
       </c>
       <c r="F508" s="1" t="s">
@@ -12829,10 +12885,10 @@
       <c r="C509" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D509" s="2">
+      <c r="D509" s="3">
         <v>26.9124336</v>
       </c>
-      <c r="E509" s="2">
+      <c r="E509" s="3">
         <v>75.7872709</v>
       </c>
       <c r="H509" s="1" t="s">
@@ -12849,10 +12905,10 @@
       <c r="C510" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D510" s="2">
+      <c r="D510" s="3">
         <v>26.2389469</v>
       </c>
-      <c r="E510" s="2">
+      <c r="E510" s="3">
         <v>73.0243093999999</v>
       </c>
       <c r="H510" s="1" t="s">
@@ -12869,10 +12925,10 @@
       <c r="C511" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D511" s="2">
+      <c r="D511" s="3">
         <v>44.0668431</v>
       </c>
-      <c r="E511" s="2">
+      <c r="E511" s="3">
         <v>-103.2502728</v>
       </c>
       <c r="H511" s="1" t="s">
@@ -12889,10 +12945,10 @@
       <c r="C512" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D512" s="2">
+      <c r="D512" s="3">
         <v>26.4498954</v>
       </c>
-      <c r="E512" s="2">
+      <c r="E512" s="3">
         <v>74.6399163</v>
       </c>
       <c r="H512" s="1" t="s">
@@ -12909,10 +12965,10 @@
       <c r="C513" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D513" s="2">
+      <c r="D513" s="3">
         <v>27.2151863</v>
       </c>
-      <c r="E513" s="2">
+      <c r="E513" s="3">
         <v>77.5029996</v>
       </c>
       <c r="H513" s="1" t="s">
@@ -12929,10 +12985,10 @@
       <c r="C514" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D514" s="2">
+      <c r="D514" s="3">
         <v>27.1983368</v>
       </c>
-      <c r="E514" s="2">
+      <c r="E514" s="3">
         <v>73.7493272</v>
       </c>
       <c r="H514" s="1" t="s">
@@ -12949,10 +13005,10 @@
       <c r="C515" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D515" s="2">
+      <c r="D515" s="3">
         <v>23.5461394</v>
       </c>
-      <c r="E515" s="2">
+      <c r="E515" s="3">
         <v>74.4349761</v>
       </c>
       <c r="H515" s="1" t="s">
@@ -12969,10 +13025,10 @@
       <c r="C516" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D516" s="2">
+      <c r="D516" s="3">
         <v>24.5973494</v>
       </c>
-      <c r="E516" s="2">
+      <c r="E516" s="3">
         <v>76.1609838</v>
       </c>
       <c r="H516" s="1" t="s">
@@ -12989,10 +13045,10 @@
       <c r="C517" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D517" s="2">
+      <c r="D517" s="3">
         <v>36.0780645</v>
       </c>
-      <c r="E517" s="2">
+      <c r="E517" s="3">
         <v>-80.3346706999999</v>
       </c>
       <c r="G517" s="1" t="s">
@@ -13009,10 +13065,10 @@
       <c r="C518" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D518" s="2">
+      <c r="D518" s="3">
         <v>26.9157487</v>
       </c>
-      <c r="E518" s="2">
+      <c r="E518" s="3">
         <v>70.9083443</v>
       </c>
       <c r="G518" s="1" t="s">
@@ -13029,10 +13085,10 @@
       <c r="C519" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D519" s="2">
+      <c r="D519" s="3">
         <v>26.8996953</v>
       </c>
-      <c r="E519" s="2">
+      <c r="E519" s="3">
         <v>76.332411</v>
       </c>
       <c r="G519" s="1" t="s">
@@ -13049,10 +13105,10 @@
       <c r="C520" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D520" s="2">
+      <c r="D520" s="3">
         <v>28.1317038</v>
       </c>
-      <c r="E520" s="2">
+      <c r="E520" s="3">
         <v>75.4022233</v>
       </c>
       <c r="G520" s="1" t="s">
@@ -13069,10 +13125,10 @@
       <c r="C521" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D521" s="2">
+      <c r="D521" s="3">
         <v>29.5815012</v>
       </c>
-      <c r="E521" s="2">
+      <c r="E521" s="3">
         <v>74.3294198999999</v>
       </c>
       <c r="G521" s="1" t="s">
@@ -13089,10 +13145,10 @@
       <c r="C522" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D522" s="2">
+      <c r="D522" s="3">
         <v>25.3407388</v>
       </c>
-      <c r="E522" s="2">
+      <c r="E522" s="3">
         <v>74.6313182999999</v>
       </c>
       <c r="G522" s="1" t="s">
@@ -13109,10 +13165,10 @@
       <c r="C523" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D523" s="2">
+      <c r="D523" s="3">
         <v>26.012373</v>
       </c>
-      <c r="E523" s="2">
+      <c r="E523" s="3">
         <v>76.3560109</v>
       </c>
       <c r="G523" s="1" t="s">
@@ -13129,10 +13185,10 @@
       <c r="C524" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D524" s="2">
+      <c r="D524" s="3">
         <v>24.8829177</v>
       </c>
-      <c r="E524" s="2">
+      <c r="E524" s="3">
         <v>74.6229699</v>
       </c>
       <c r="G524" s="1" t="s">
@@ -13149,10 +13205,10 @@
       <c r="C525" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D525" s="2">
+      <c r="D525" s="3">
         <v>23.841668</v>
       </c>
-      <c r="E525" s="2">
+      <c r="E525" s="3">
         <v>73.7146623</v>
       </c>
       <c r="G525" s="1" t="s">
@@ -13169,10 +13225,10 @@
       <c r="C526" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D526" s="2">
+      <c r="D526" s="3">
         <v>24.585445</v>
       </c>
-      <c r="E526" s="2">
+      <c r="E526" s="3">
         <v>73.712479</v>
       </c>
       <c r="G526" s="1" t="s">
@@ -13189,10 +13245,10 @@
       <c r="C527" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D527" s="2">
+      <c r="D527" s="3">
         <v>26.6965521</v>
       </c>
-      <c r="E527" s="2">
+      <c r="E527" s="3">
         <v>77.8907576</v>
       </c>
       <c r="G527" s="1" t="s">
@@ -13209,10 +13265,10 @@
       <c r="C528" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D528" s="2">
+      <c r="D528" s="3">
         <v>27.6093912</v>
       </c>
-      <c r="E528" s="2">
+      <c r="E528" s="3">
         <v>75.1397935</v>
       </c>
       <c r="G528" s="1" t="s">
@@ -13229,10 +13285,10 @@
       <c r="C529" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D529" s="2">
+      <c r="D529" s="3">
         <v>27.5529907</v>
       </c>
-      <c r="E529" s="2">
+      <c r="E529" s="3">
         <v>76.6345735</v>
       </c>
       <c r="G529" s="1" t="s">
@@ -13249,10 +13305,10 @@
       <c r="C530" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D530" s="2">
+      <c r="D530" s="3">
         <v>28.0229348</v>
       </c>
-      <c r="E530" s="2">
+      <c r="E530" s="3">
         <v>73.3119159</v>
       </c>
       <c r="G530" s="1" t="s">
@@ -13269,10 +13325,10 @@
       <c r="C531" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D531" s="2">
+      <c r="D531" s="3">
         <v>28.2925364</v>
       </c>
-      <c r="E531" s="2">
+      <c r="E531" s="3">
         <v>74.9707262</v>
       </c>
       <c r="G531" s="1" t="s">
@@ -13289,10 +13345,10 @@
       <c r="C532" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D532" s="2">
+      <c r="D532" s="3">
         <v>34.2256512</v>
       </c>
-      <c r="E532" s="2">
+      <c r="E532" s="3">
         <v>-117.1331365</v>
       </c>
       <c r="G532" s="1" t="s">
@@ -13309,10 +13365,10 @@
       <c r="C533" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D533" s="2">
+      <c r="D533" s="3">
         <v>25.7521467</v>
       </c>
-      <c r="E533" s="2">
+      <c r="E533" s="3">
         <v>71.3966865</v>
       </c>
       <c r="G533" s="1" t="s">
@@ -13329,10 +13385,10 @@
       <c r="C534" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D534" s="2">
+      <c r="D534" s="3">
         <v>26.488323</v>
       </c>
-      <c r="E534" s="2">
+      <c r="E534" s="3">
         <v>77.0161435999999</v>
       </c>
       <c r="G534" s="1" t="s">
@@ -13349,10 +13405,10 @@
       <c r="C535" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D535" s="2">
+      <c r="D535" s="3">
         <v>25.0583257</v>
       </c>
-      <c r="E535" s="2">
+      <c r="E535" s="3">
         <v>73.8860033999999</v>
       </c>
       <c r="G535" s="1" t="s">
@@ -13369,10 +13425,10 @@
       <c r="C536" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D536" s="2">
+      <c r="D536" s="3">
         <v>45.6386376</v>
       </c>
-      <c r="E536" s="2">
+      <c r="E536" s="3">
         <v>-73.3129112</v>
       </c>
       <c r="F536" s="1" t="s">
@@ -13389,10 +13445,10 @@
       <c r="C537" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D537" s="2">
+      <c r="D537" s="3">
         <v>25.4325869</v>
       </c>
-      <c r="E537" s="2">
+      <c r="E537" s="3">
         <v>75.6482726</v>
       </c>
       <c r="F537" s="1" t="s">
@@ -13409,10 +13465,10 @@
       <c r="C538" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D538" s="2">
+      <c r="D538" s="3">
         <v>29.9093759</v>
       </c>
-      <c r="E538" s="2">
+      <c r="E538" s="3">
         <v>73.8799805</v>
       </c>
       <c r="F538" s="1" t="s">
@@ -13429,10 +13485,10 @@
       <c r="C539" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D539" s="2">
+      <c r="D539" s="3">
         <v>25.3444799</v>
       </c>
-      <c r="E539" s="2">
+      <c r="E539" s="3">
         <v>72.6253763</v>
       </c>
       <c r="F539" s="1" t="s">
@@ -13449,10 +13505,10 @@
       <c r="C540" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D540" s="2">
+      <c r="D540" s="3">
         <v>24.8851548</v>
       </c>
-      <c r="E540" s="2">
+      <c r="E540" s="3">
         <v>72.8574558</v>
       </c>
       <c r="F540" s="1" t="s">
@@ -13469,10 +13525,10 @@
       <c r="C541" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D541" s="2">
+      <c r="D541" s="3">
         <v>25.8973038</v>
       </c>
-      <c r="E541" s="2">
+      <c r="E541" s="3">
         <v>81.9452981</v>
       </c>
       <c r="F541" s="1" t="s">
@@ -13489,10 +13545,10 @@
       <c r="C542" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D542" s="2">
+      <c r="D542" s="3">
         <v>32.8611613</v>
       </c>
-      <c r="E542" s="2">
+      <c r="E542" s="3">
         <v>-81.0777940999999</v>
       </c>
       <c r="F542" s="1" t="s">
@@ -13509,10 +13565,10 @@
       <c r="C543" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D543" s="2">
+      <c r="D543" s="3">
         <v>39.7748662</v>
       </c>
-      <c r="E543" s="2">
+      <c r="E543" s="3">
         <v>-86.0430916</v>
       </c>
       <c r="F543" s="1" t="s">
@@ -13529,10 +13585,10 @@
       <c r="C544" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D544" s="2">
+      <c r="D544" s="3">
         <v>36.9942017</v>
       </c>
-      <c r="E544" s="2">
+      <c r="E544" s="3">
         <v>-95.6124852</v>
       </c>
       <c r="F544" s="1" t="s">
@@ -13549,10 +13605,10 @@
       <c r="C545" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D545" s="2">
+      <c r="D545" s="3">
         <v>35.9244004</v>
       </c>
-      <c r="E545" s="2">
+      <c r="E545" s="3">
         <v>-94.1891795</v>
       </c>
       <c r="F545" s="1" t="s">
@@ -13569,10 +13625,10 @@
       <c r="C546" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D546" s="2">
+      <c r="D546" s="3">
         <v>13.0826802</v>
       </c>
-      <c r="E546" s="2">
+      <c r="E546" s="3">
         <v>80.2707184</v>
       </c>
       <c r="H546" s="1" t="s">
@@ -13589,10 +13645,10 @@
       <c r="C547" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D547" s="2">
+      <c r="D547" s="3">
         <v>9.9252007</v>
       </c>
-      <c r="E547" s="2">
+      <c r="E547" s="3">
         <v>78.1197754</v>
       </c>
       <c r="H547" s="1" t="s">
@@ -13609,10 +13665,10 @@
       <c r="C548" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D548" s="2">
+      <c r="D548" s="3">
         <v>11.2188958</v>
       </c>
-      <c r="E548" s="2">
+      <c r="E548" s="3">
         <v>78.1673575</v>
       </c>
       <c r="H548" s="1" t="s">
@@ -13629,10 +13685,10 @@
       <c r="C549" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D549" s="2">
+      <c r="D549" s="3">
         <v>10.7869994</v>
       </c>
-      <c r="E549" s="2">
+      <c r="E549" s="3">
         <v>79.1378273999999</v>
       </c>
       <c r="H549" s="1" t="s">
@@ -13649,10 +13705,10 @@
       <c r="C550" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D550" s="2">
+      <c r="D550" s="3">
         <v>12.6819372</v>
       </c>
-      <c r="E550" s="2">
+      <c r="E550" s="3">
         <v>79.9888412999999</v>
       </c>
       <c r="H550" s="1" t="s">
@@ -13669,10 +13725,10 @@
       <c r="C551" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D551" s="2">
+      <c r="D551" s="3">
         <v>13.1230558</v>
       </c>
-      <c r="E551" s="2">
+      <c r="E551" s="3">
         <v>79.9119526</v>
       </c>
       <c r="H551" s="1" t="s">
@@ -13689,10 +13745,10 @@
       <c r="C552" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D552" s="2">
+      <c r="D552" s="3">
         <v>11.1085242</v>
       </c>
-      <c r="E552" s="2">
+      <c r="E552" s="3">
         <v>77.3410656</v>
       </c>
       <c r="H552" s="1" t="s">
@@ -13709,10 +13765,10 @@
       <c r="C553" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D553" s="2">
+      <c r="D553" s="3">
         <v>12.9487403</v>
       </c>
-      <c r="E553" s="2">
+      <c r="E553" s="3">
         <v>79.318978</v>
       </c>
       <c r="H553" s="1" t="s">
@@ -13729,10 +13785,10 @@
       <c r="C554" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D554" s="2">
+      <c r="D554" s="3">
         <v>9.5680116</v>
       </c>
-      <c r="E554" s="2">
+      <c r="E554" s="3">
         <v>77.9624434999999</v>
       </c>
       <c r="H554" s="1" t="s">
@@ -13749,10 +13805,10 @@
       <c r="C555" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D555" s="2">
+      <c r="D555" s="3">
         <v>10.7661312</v>
       </c>
-      <c r="E555" s="2">
+      <c r="E555" s="3">
         <v>79.6343691</v>
       </c>
       <c r="H555" s="1" t="s">
@@ -13769,10 +13825,10 @@
       <c r="C556" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D556" s="2">
+      <c r="D556" s="3">
         <v>12.9165167</v>
       </c>
-      <c r="E556" s="2">
+      <c r="E556" s="3">
         <v>79.1324985999999</v>
       </c>
       <c r="H556" s="1" t="s">
@@ -13789,10 +13845,10 @@
       <c r="C557" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D557" s="2">
+      <c r="D557" s="3">
         <v>12.818456</v>
       </c>
-      <c r="E557" s="2">
+      <c r="E557" s="3">
         <v>79.6946586</v>
       </c>
       <c r="H557" s="1" t="s">
@@ -13809,10 +13865,10 @@
       <c r="C558" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D558" s="2">
+      <c r="D558" s="3">
         <v>10.0103658</v>
       </c>
-      <c r="E558" s="2">
+      <c r="E558" s="3">
         <v>77.4768115</v>
       </c>
       <c r="G558" s="1" t="s">
@@ -13829,10 +13885,10 @@
       <c r="C559" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D559" s="2">
+      <c r="D559" s="3">
         <v>8.95935199999999</v>
       </c>
-      <c r="E559" s="2">
+      <c r="E559" s="3">
         <v>77.316109</v>
       </c>
       <c r="G559" s="1" t="s">
@@ -13849,10 +13905,10 @@
       <c r="C560" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D560" s="2">
+      <c r="D560" s="3">
         <v>10.7672313</v>
       </c>
-      <c r="E560" s="2">
+      <c r="E560" s="3">
         <v>79.8448512</v>
       </c>
       <c r="G560" s="1" t="s">
@@ -13869,10 +13925,10 @@
       <c r="C561" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D561" s="2">
+      <c r="D561" s="3">
         <v>10.3623794</v>
       </c>
-      <c r="E561" s="2">
+      <c r="E561" s="3">
         <v>77.9694579</v>
       </c>
       <c r="G561" s="1" t="s">
@@ -13889,10 +13945,10 @@
       <c r="C562" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D562" s="2">
+      <c r="D562" s="3">
         <v>11.9401378</v>
       </c>
-      <c r="E562" s="2">
+      <c r="E562" s="3">
         <v>79.4861449</v>
       </c>
       <c r="G562" s="1" t="s">
@@ -13909,10 +13965,10 @@
       <c r="C563" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D563" s="2">
+      <c r="D563" s="3">
         <v>11.0168445</v>
       </c>
-      <c r="E563" s="2">
+      <c r="E563" s="3">
         <v>76.9558321</v>
       </c>
       <c r="G563" s="1" t="s">
@@ -13929,10 +13985,10 @@
       <c r="C564" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D564" s="2">
+      <c r="D564" s="3">
         <v>11.7480419</v>
       </c>
-      <c r="E564" s="2">
+      <c r="E564" s="3">
         <v>79.7713687</v>
       </c>
       <c r="G564" s="1" t="s">
@@ -13949,10 +14005,10 @@
       <c r="C565" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D565" s="2">
+      <c r="D565" s="3">
         <v>42.51954</v>
       </c>
-      <c r="E565" s="2">
+      <c r="E565" s="3">
         <v>-70.8967155</v>
       </c>
       <c r="G565" s="1" t="s">
@@ -13969,10 +14025,10 @@
       <c r="C566" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D566" s="2">
+      <c r="D566" s="3">
         <v>10.9600778</v>
       </c>
-      <c r="E566" s="2">
+      <c r="E566" s="3">
         <v>78.0766036</v>
       </c>
       <c r="G566" s="1" t="s">
@@ -13989,10 +14045,10 @@
       <c r="C567" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D567" s="2">
+      <c r="D567" s="3">
         <v>8.76416609999999</v>
       </c>
-      <c r="E567" s="2">
+      <c r="E567" s="3">
         <v>78.1348361</v>
       </c>
       <c r="G567" s="1" t="s">
@@ -14009,10 +14065,10 @@
       <c r="C568" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D568" s="2">
+      <c r="D568" s="3">
         <v>10.7904833</v>
       </c>
-      <c r="E568" s="2">
+      <c r="E568" s="3">
         <v>78.7046725</v>
       </c>
       <c r="G568" s="1" t="s">
@@ -14029,10 +14085,10 @@
       <c r="C569" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D569" s="2">
+      <c r="D569" s="3">
         <v>10.588265</v>
       </c>
-      <c r="E569" s="2">
+      <c r="E569" s="3">
         <v>79.5729868999999</v>
       </c>
       <c r="G569" s="1" t="s">
@@ -14049,10 +14105,10 @@
       <c r="C570" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D570" s="2">
+      <c r="D570" s="3">
         <v>8.0883064</v>
       </c>
-      <c r="E570" s="2">
+      <c r="E570" s="3">
         <v>77.5384507</v>
       </c>
       <c r="G570" s="1" t="s">
@@ -14069,10 +14125,10 @@
       <c r="C571" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D571" s="2">
+      <c r="D571" s="3">
         <v>12.2252841</v>
       </c>
-      <c r="E571" s="2">
+      <c r="E571" s="3">
         <v>79.0746956999999</v>
       </c>
       <c r="G571" s="1" t="s">
@@ -14089,10 +14145,10 @@
       <c r="C572" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D572" s="2">
+      <c r="D572" s="3">
         <v>9.3639356</v>
       </c>
-      <c r="E572" s="2">
+      <c r="E572" s="3">
         <v>78.8394819</v>
       </c>
       <c r="G572" s="1" t="s">
@@ -14109,10 +14165,10 @@
       <c r="C573" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D573" s="2">
+      <c r="D573" s="3">
         <v>8.7139126</v>
       </c>
-      <c r="E573" s="2">
+      <c r="E573" s="3">
         <v>77.7566523</v>
       </c>
       <c r="G573" s="1" t="s">
@@ -14129,10 +14185,10 @@
       <c r="C574" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D574" s="2">
+      <c r="D574" s="3">
         <v>11.4916043</v>
       </c>
-      <c r="E574" s="2">
+      <c r="E574" s="3">
         <v>76.7336521</v>
       </c>
       <c r="G574" s="1" t="s">
@@ -14149,10 +14205,10 @@
       <c r="C575" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D575" s="2">
+      <c r="D575" s="3">
         <v>9.8432999</v>
       </c>
-      <c r="E575" s="2">
+      <c r="E575" s="3">
         <v>78.4808774999999</v>
       </c>
       <c r="G575" s="1" t="s">
@@ -14169,10 +14225,10 @@
       <c r="C576" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D576" s="2">
+      <c r="D576" s="3">
         <v>11.2342104</v>
       </c>
-      <c r="E576" s="2">
+      <c r="E576" s="3">
         <v>78.8806852</v>
       </c>
       <c r="G576" s="1" t="s">
@@ -14189,10 +14245,10 @@
       <c r="C577" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D577" s="2">
+      <c r="D577" s="3">
         <v>11.7383735</v>
       </c>
-      <c r="E577" s="2">
+      <c r="E577" s="3">
         <v>78.9638899</v>
       </c>
       <c r="G577" s="1" t="s">
@@ -14209,10 +14265,10 @@
       <c r="C578" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D578" s="2">
+      <c r="D578" s="3">
         <v>11.1400585</v>
       </c>
-      <c r="E578" s="2">
+      <c r="E578" s="3">
         <v>79.0786281</v>
       </c>
       <c r="G578" s="1" t="s">
@@ -14229,10 +14285,10 @@
       <c r="C579" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D579" s="2">
+      <c r="D579" s="3">
         <v>11.3410364</v>
       </c>
-      <c r="E579" s="2">
+      <c r="E579" s="3">
         <v>77.7171642</v>
       </c>
       <c r="G579" s="1" t="s">
@@ -14249,10 +14305,10 @@
       <c r="C580" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D580" s="2">
+      <c r="D580" s="3">
         <v>10.3832867</v>
       </c>
-      <c r="E580" s="2">
+      <c r="E580" s="3">
         <v>78.800129</v>
       </c>
       <c r="G580" s="1" t="s">
@@ -14269,10 +14325,10 @@
       <c r="C581" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D581" s="2">
+      <c r="D581" s="3">
         <v>12.1210997</v>
       </c>
-      <c r="E581" s="2">
+      <c r="E581" s="3">
         <v>78.1582143</v>
       </c>
       <c r="G581" s="1" t="s">
@@ -14289,10 +14345,10 @@
       <c r="C582" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D582" s="2">
+      <c r="D582" s="3">
         <v>12.5265661</v>
       </c>
-      <c r="E582" s="2">
+      <c r="E582" s="3">
         <v>78.2149575</v>
       </c>
       <c r="F582" s="1" t="s">
@@ -14309,10 +14365,10 @@
       <c r="C583" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D583" s="2">
+      <c r="D583" s="3">
         <v>17.385044</v>
       </c>
-      <c r="E583" s="2">
+      <c r="E583" s="3">
         <v>78.486671</v>
       </c>
       <c r="H583" s="1" t="s">
@@ -14329,10 +14385,10 @@
       <c r="C584" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D584" s="2">
+      <c r="D584" s="3">
         <v>17.1313756</v>
       </c>
-      <c r="E584" s="2">
+      <c r="E584" s="3">
         <v>79.6336242</v>
       </c>
       <c r="H584" s="1" t="s">
@@ -14349,10 +14405,10 @@
       <c r="C585" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D585" s="2">
+      <c r="D585" s="3">
         <v>17.3891379</v>
       </c>
-      <c r="E585" s="2">
+      <c r="E585" s="3">
         <v>77.8367282</v>
       </c>
       <c r="H585" s="1" t="s">
@@ -14369,10 +14425,10 @@
       <c r="C586" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D586" s="2">
+      <c r="D586" s="3">
         <v>17.4139017</v>
       </c>
-      <c r="E586" s="2">
+      <c r="E586" s="3">
         <v>78.5855965</v>
       </c>
       <c r="H586" s="1" t="s">
@@ -14389,10 +14445,10 @@
       <c r="C587" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D587" s="2">
+      <c r="D587" s="3">
         <v>17.3364555</v>
       </c>
-      <c r="E587" s="2">
+      <c r="E587" s="3">
         <v>77.9048268</v>
       </c>
       <c r="H587" s="1" t="s">
@@ -14409,10 +14465,10 @@
       <c r="C588" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D588" s="2">
+      <c r="D588" s="3">
         <v>17.9744395</v>
       </c>
-      <c r="E588" s="2">
+      <c r="E588" s="3">
         <v>79.9192702</v>
       </c>
       <c r="H588" s="1" t="s">
@@ -14429,10 +14485,10 @@
       <c r="C589" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D589" s="2">
+      <c r="D589" s="3">
         <v>18.6725047</v>
       </c>
-      <c r="E589" s="2">
+      <c r="E589" s="3">
         <v>78.0940866999999</v>
       </c>
       <c r="G589" s="1" t="s">
@@ -14449,10 +14505,10 @@
       <c r="C590" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D590" s="2">
+      <c r="D590" s="3">
         <v>16.226169</v>
       </c>
-      <c r="E590" s="2">
+      <c r="E590" s="3">
         <v>77.8168987</v>
       </c>
       <c r="G590" s="1" t="s">
@@ -14469,10 +14525,10 @@
       <c r="C591" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D591" s="2">
+      <c r="D591" s="3">
         <v>19.0964117</v>
       </c>
-      <c r="E591" s="2">
+      <c r="E591" s="3">
         <v>78.342975</v>
       </c>
       <c r="G591" s="1" t="s">
@@ -14489,10 +14545,10 @@
       <c r="C592" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D592" s="2">
+      <c r="D592" s="3">
         <v>17.0574663</v>
       </c>
-      <c r="E592" s="2">
+      <c r="E592" s="3">
         <v>79.2684168999999</v>
       </c>
       <c r="G592" s="1" t="s">
@@ -14509,10 +14565,10 @@
       <c r="C593" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D593" s="2">
+      <c r="D593" s="3">
         <v>19.6640624</v>
       </c>
-      <c r="E593" s="2">
+      <c r="E593" s="3">
         <v>78.5320107</v>
       </c>
       <c r="G593" s="1" t="s">
@@ -14529,10 +14585,10 @@
       <c r="C594" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D594" s="2">
+      <c r="D594" s="3">
         <v>17.6140077</v>
       </c>
-      <c r="E594" s="2">
+      <c r="E594" s="3">
         <v>78.0815626999999</v>
       </c>
       <c r="G594" s="1" t="s">
@@ -14549,10 +14605,10 @@
       <c r="C595" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D595" s="2">
+      <c r="D595" s="3">
         <v>18.3204832</v>
       </c>
-      <c r="E595" s="2">
+      <c r="E595" s="3">
         <v>78.3369523</v>
       </c>
       <c r="G595" s="1" t="s">
@@ -14569,10 +14625,10 @@
       <c r="C596" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D596" s="2">
+      <c r="D596" s="3">
         <v>19.361899</v>
       </c>
-      <c r="E596" s="2">
+      <c r="E596" s="3">
         <v>79.2930312</v>
       </c>
       <c r="G596" s="1" t="s">
@@ -14589,10 +14645,10 @@
       <c r="C597" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D597" s="2">
+      <c r="D597" s="3">
         <v>18.4385553</v>
       </c>
-      <c r="E597" s="2">
+      <c r="E597" s="3">
         <v>79.1288412</v>
       </c>
       <c r="G597" s="1" t="s">
@@ -14609,10 +14665,10 @@
       <c r="C598" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D598" s="2">
+      <c r="D598" s="3">
         <v>17.2472528</v>
       </c>
-      <c r="E598" s="2">
+      <c r="E598" s="3">
         <v>80.1514447</v>
       </c>
       <c r="G598" s="1" t="s">
@@ -14629,10 +14685,10 @@
       <c r="C599" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D599" s="2">
+      <c r="D599" s="3">
         <v>16.7488379</v>
       </c>
-      <c r="E599" s="2">
+      <c r="E599" s="3">
         <v>78.0035171999999</v>
       </c>
       <c r="G599" s="1" t="s">
@@ -14649,10 +14705,10 @@
       <c r="C600" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D600" s="2">
+      <c r="D600" s="3">
         <v>18.7894881</v>
       </c>
-      <c r="E600" s="2">
+      <c r="E600" s="3">
         <v>78.9120459</v>
       </c>
       <c r="G600" s="1" t="s">
@@ -14669,10 +14725,10 @@
       <c r="C601" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D601" s="2">
+      <c r="D601" s="3">
         <v>18.38895</v>
       </c>
-      <c r="E601" s="2">
+      <c r="E601" s="3">
         <v>78.8092392</v>
       </c>
       <c r="G601" s="1" t="s">
@@ -14689,10 +14745,10 @@
       <c r="C602" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D602" s="2">
+      <c r="D602" s="3">
         <v>18.4292622</v>
       </c>
-      <c r="E602" s="2">
+      <c r="E602" s="3">
         <v>79.8634855</v>
       </c>
       <c r="G602" s="1" t="s">
@@ -14709,10 +14765,10 @@
       <c r="C603" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D603" s="2">
+      <c r="D603" s="3">
         <v>18.0529357</v>
       </c>
-      <c r="E603" s="2">
+      <c r="E603" s="3">
         <v>78.261853</v>
       </c>
       <c r="G603" s="1" t="s">
@@ -14729,10 +14785,10 @@
       <c r="C604" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D604" s="2">
+      <c r="D604" s="3">
         <v>17.7226509</v>
       </c>
-      <c r="E604" s="2">
+      <c r="E604" s="3">
         <v>79.1517868</v>
       </c>
       <c r="G604" s="1" t="s">
@@ -14749,10 +14805,10 @@
       <c r="C605" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D605" s="2">
+      <c r="D605" s="3">
         <v>16.7445112</v>
       </c>
-      <c r="E605" s="2">
+      <c r="E605" s="3">
         <v>77.4960078</v>
       </c>
       <c r="G605" s="1" t="s">
@@ -14769,10 +14825,10 @@
       <c r="C606" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D606" s="2">
+      <c r="D606" s="3">
         <v>18.8713826</v>
       </c>
-      <c r="E606" s="2">
+      <c r="E606" s="3">
         <v>79.4443099</v>
       </c>
       <c r="G606" s="1" t="s">
@@ -14789,10 +14845,10 @@
       <c r="C607" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D607" s="2">
+      <c r="D607" s="3">
         <v>18.6151461</v>
       </c>
-      <c r="E607" s="2">
+      <c r="E607" s="3">
         <v>79.3826826</v>
       </c>
       <c r="F607" s="1" t="s">
@@ -14809,10 +14865,10 @@
       <c r="C608" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D608" s="2">
+      <c r="D608" s="3">
         <v>16.4939417</v>
       </c>
-      <c r="E608" s="2">
+      <c r="E608" s="3">
         <v>78.3102488999999</v>
       </c>
       <c r="F608" s="1" t="s">
@@ -14829,10 +14885,10 @@
       <c r="C609" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D609" s="2">
+      <c r="D609" s="3">
         <v>18.1932372</v>
       </c>
-      <c r="E609" s="2">
+      <c r="E609" s="3">
         <v>79.9413676</v>
       </c>
       <c r="F609" s="1" t="s">
@@ -14849,10 +14905,10 @@
       <c r="C610" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D610" s="2">
+      <c r="D610" s="3">
         <v>14.7430452</v>
       </c>
-      <c r="E610" s="2">
+      <c r="E610" s="3">
         <v>74.6758388</v>
       </c>
       <c r="F610" s="1" t="s">
@@ -14869,10 +14925,10 @@
       <c r="C611" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D611" s="2">
+      <c r="D611" s="3">
         <v>17.602625</v>
       </c>
-      <c r="E611" s="2">
+      <c r="E611" s="3">
         <v>80.0036198999999</v>
       </c>
       <c r="F611" s="1" t="s">
@@ -14889,10 +14945,10 @@
       <c r="C612" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D612" s="2">
+      <c r="D612" s="3">
         <v>18.1017996</v>
       </c>
-      <c r="E612" s="2">
+      <c r="E612" s="3">
         <v>78.8519601</v>
       </c>
       <c r="F612" s="1" t="s">
@@ -14909,10 +14965,10 @@
       <c r="C613" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D613" s="2">
+      <c r="D613" s="3">
         <v>17.9971817</v>
       </c>
-      <c r="E613" s="2">
+      <c r="E613" s="3">
         <v>79.5540163</v>
       </c>
       <c r="F613" s="1" t="s">
@@ -14929,10 +14985,10 @@
       <c r="C614" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D614" s="2">
+      <c r="D614" s="3">
         <v>16.3623118</v>
       </c>
-      <c r="E614" s="2">
+      <c r="E614" s="3">
         <v>78.0621824</v>
       </c>
       <c r="F614" s="1" t="s">
@@ -14949,8 +15005,12 @@
       <c r="C615" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D615" s="3"/>
-      <c r="E615" s="4"/>
+      <c r="D615" s="4">
+        <v>17.524716</v>
+      </c>
+      <c r="E615" s="5">
+        <v>78.899047</v>
+      </c>
       <c r="F615" s="1" t="s">
         <v>12</v>
       </c>
@@ -14965,10 +15025,10 @@
       <c r="C616" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D616" s="2">
+      <c r="D616" s="3">
         <v>24.0797139</v>
       </c>
-      <c r="E616" s="2">
+      <c r="E616" s="3">
         <v>92.2630393</v>
       </c>
       <c r="G616" s="1" t="s">
@@ -14985,10 +15045,10 @@
       <c r="C617" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D617" s="2">
+      <c r="D617" s="3">
         <v>26.692043</v>
       </c>
-      <c r="E617" s="2">
+      <c r="E617" s="3">
         <v>81.6005086</v>
       </c>
       <c r="G617" s="1" t="s">
@@ -15005,10 +15065,10 @@
       <c r="C618" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D618" s="2">
+      <c r="D618" s="3">
         <v>23.8466982</v>
       </c>
-      <c r="E618" s="2">
+      <c r="E618" s="3">
         <v>91.9099238</v>
       </c>
       <c r="F618" s="1" t="s">
@@ -15025,10 +15085,10 @@
       <c r="C619" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D619" s="2">
+      <c r="D619" s="3">
         <v>23.2317493</v>
       </c>
-      <c r="E619" s="2">
+      <c r="E619" s="3">
         <v>91.5596116999999</v>
       </c>
       <c r="F619" s="1" t="s">
@@ -15045,10 +15105,10 @@
       <c r="C620" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D620" s="2">
+      <c r="D620" s="3">
         <v>23.899682</v>
       </c>
-      <c r="E620" s="2">
+      <c r="E620" s="3">
         <v>91.4048249</v>
       </c>
       <c r="F620" s="1" t="s">
@@ -15065,10 +15125,10 @@
       <c r="C621" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D621" s="2">
+      <c r="D621" s="3">
         <v>24.0671796</v>
       </c>
-      <c r="E621" s="2">
+      <c r="E621" s="3">
         <v>91.6056718</v>
       </c>
       <c r="F621" s="1" t="s">
@@ -15085,10 +15145,10 @@
       <c r="C622" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="D622" s="2">
+      <c r="D622" s="3">
         <v>23.6684101</v>
       </c>
-      <c r="E622" s="2">
+      <c r="E622" s="3">
         <v>91.3228228999999</v>
       </c>
       <c r="F622" s="1" t="s">
@@ -15105,10 +15165,10 @@
       <c r="C623" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D623" s="2">
+      <c r="D623" s="3">
         <v>24.3169807</v>
       </c>
-      <c r="E623" s="2">
+      <c r="E623" s="3">
         <v>92.0668989</v>
       </c>
       <c r="F623" s="1" t="s">
@@ -15125,10 +15185,10 @@
       <c r="C624" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D624" s="2">
+      <c r="D624" s="3">
         <v>27.1766701</v>
       </c>
-      <c r="E624" s="2">
+      <c r="E624" s="3">
         <v>78.0080744999999</v>
       </c>
       <c r="H624" s="1" t="s">
@@ -15145,10 +15205,10 @@
       <c r="C625" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D625" s="2">
+      <c r="D625" s="3">
         <v>26.8466937</v>
       </c>
-      <c r="E625" s="2">
+      <c r="E625" s="3">
         <v>80.9461659999999</v>
       </c>
       <c r="H625" s="1" t="s">
@@ -15165,10 +15225,10 @@
       <c r="C626" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D626" s="2">
+      <c r="D626" s="3">
         <v>29.9680035</v>
       </c>
-      <c r="E626" s="2">
+      <c r="E626" s="3">
         <v>77.5552065999999</v>
       </c>
       <c r="H626" s="1" t="s">
@@ -15185,10 +15245,10 @@
       <c r="C627" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D627" s="2">
+      <c r="D627" s="3">
         <v>26.4148245</v>
       </c>
-      <c r="E627" s="2">
+      <c r="E627" s="3">
         <v>80.2321312999999</v>
       </c>
       <c r="H627" s="1" t="s">
@@ -15205,10 +15265,10 @@
       <c r="C628" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D628" s="2">
+      <c r="D628" s="3">
         <v>28.8386481</v>
       </c>
-      <c r="E628" s="2">
+      <c r="E628" s="3">
         <v>78.7733286</v>
       </c>
       <c r="H628" s="1" t="s">
@@ -15225,10 +15285,10 @@
       <c r="C629" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D629" s="2">
+      <c r="D629" s="3">
         <v>27.1591961</v>
       </c>
-      <c r="E629" s="2">
+      <c r="E629" s="3">
         <v>78.3957331</v>
       </c>
       <c r="H629" s="1" t="s">
@@ -15245,10 +15305,10 @@
       <c r="C630" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D630" s="2">
+      <c r="D630" s="3">
         <v>28.338333</v>
       </c>
-      <c r="E630" s="2">
+      <c r="E630" s="3">
         <v>77.6077865</v>
       </c>
       <c r="H630" s="1" t="s">
@@ -15265,10 +15325,10 @@
       <c r="C631" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="D631" s="2">
+      <c r="D631" s="3">
         <v>28.406963</v>
       </c>
-      <c r="E631" s="2">
+      <c r="E631" s="3">
         <v>77.8498292</v>
       </c>
       <c r="H631" s="1" t="s">
@@ -15285,10 +15345,10 @@
       <c r="C632" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D632" s="2">
+      <c r="D632" s="3">
         <v>28.9844618</v>
       </c>
-      <c r="E632" s="2">
+      <c r="E632" s="3">
         <v>77.7064137</v>
       </c>
       <c r="H632" s="1" t="s">
@@ -15305,10 +15365,10 @@
       <c r="C633" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D633" s="2">
+      <c r="D633" s="3">
         <v>26.2144806</v>
       </c>
-      <c r="E633" s="2">
+      <c r="E633" s="3">
         <v>81.2528138999999</v>
       </c>
       <c r="H633" s="1" t="s">
@@ -15325,10 +15385,10 @@
       <c r="C634" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D634" s="2">
+      <c r="D634" s="3">
         <v>25.3176452</v>
       </c>
-      <c r="E634" s="2">
+      <c r="E634" s="3">
         <v>82.9739144</v>
       </c>
       <c r="H634" s="1" t="s">
@@ -15345,10 +15405,10 @@
       <c r="C635" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D635" s="2">
+      <c r="D635" s="3">
         <v>29.3731673</v>
       </c>
-      <c r="E635" s="2">
+      <c r="E635" s="3">
         <v>78.1350904</v>
       </c>
       <c r="H635" s="1" t="s">
@@ -15365,10 +15425,10 @@
       <c r="C636" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D636" s="2">
+      <c r="D636" s="3">
         <v>28.9051778</v>
       </c>
-      <c r="E636" s="2">
+      <c r="E636" s="3">
         <v>78.4673179999999</v>
       </c>
       <c r="H636" s="1" t="s">
@@ -15385,10 +15445,10 @@
       <c r="C637" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D637" s="2">
+      <c r="D637" s="3">
         <v>26.7671755</v>
       </c>
-      <c r="E637" s="2">
+      <c r="E637" s="3">
         <v>83.0361375999999</v>
       </c>
       <c r="H637" s="1" t="s">
@@ -15405,10 +15465,10 @@
       <c r="C638" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D638" s="2">
+      <c r="D638" s="3">
         <v>27.8973944</v>
       </c>
-      <c r="E638" s="2">
+      <c r="E638" s="3">
         <v>78.0880129</v>
       </c>
       <c r="H638" s="1" t="s">
@@ -15425,10 +15485,10 @@
       <c r="C639" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D639" s="2">
+      <c r="D639" s="3">
         <v>29.4726817</v>
       </c>
-      <c r="E639" s="2">
+      <c r="E639" s="3">
         <v>77.7085091</v>
       </c>
       <c r="H639" s="1" t="s">
@@ -15445,10 +15505,10 @@
       <c r="C640" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D640" s="2">
+      <c r="D640" s="3">
         <v>28.798299</v>
       </c>
-      <c r="E640" s="2">
+      <c r="E640" s="3">
         <v>79.0220286999999</v>
       </c>
       <c r="H640" s="1" t="s">
@@ -15465,10 +15525,10 @@
       <c r="C641" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D641" s="2">
+      <c r="D641" s="3">
         <v>27.4924134</v>
       </c>
-      <c r="E641" s="2">
+      <c r="E641" s="3">
         <v>77.673673</v>
       </c>
       <c r="H641" s="1" t="s">
@@ -15485,10 +15545,10 @@
       <c r="C642" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D642" s="2">
+      <c r="D642" s="3">
         <v>28.3670355</v>
       </c>
-      <c r="E642" s="2">
+      <c r="E642" s="3">
         <v>79.4304381</v>
       </c>
       <c r="H642" s="1" t="s">
@@ -15505,10 +15565,10 @@
       <c r="C643" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="D643" s="2">
+      <c r="D643" s="3">
         <v>28.6691565</v>
       </c>
-      <c r="E643" s="2">
+      <c r="E643" s="3">
         <v>77.4537577999999</v>
       </c>
       <c r="G643" s="1" t="s">
@@ -15525,10 +15585,10 @@
       <c r="C644" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D644" s="2">
+      <c r="D644" s="3">
         <v>28.7305797999999</v>
       </c>
-      <c r="E644" s="2">
+      <c r="E644" s="3">
         <v>77.7758825</v>
       </c>
       <c r="G644" s="1" t="s">
@@ -15545,10 +15605,10 @@
       <c r="C645" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D645" s="2">
+      <c r="D645" s="3">
         <v>28.9427827</v>
       </c>
-      <c r="E645" s="2">
+      <c r="E645" s="3">
         <v>77.2276069999999</v>
       </c>
       <c r="G645" s="1" t="s">
@@ -15565,10 +15625,10 @@
       <c r="C646" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D646" s="2">
+      <c r="D646" s="3">
         <v>26.8139844</v>
       </c>
-      <c r="E646" s="2">
+      <c r="E646" s="3">
         <v>82.7629893</v>
       </c>
       <c r="G646" s="1" t="s">
@@ -15585,10 +15645,10 @@
       <c r="C647" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D647" s="2">
+      <c r="D647" s="3">
         <v>28.0311101</v>
       </c>
-      <c r="E647" s="2">
+      <c r="E647" s="3">
         <v>79.1271229</v>
       </c>
       <c r="G647" s="1" t="s">
@@ -15605,10 +15665,10 @@
       <c r="C648" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D648" s="2">
+      <c r="D648" s="3">
         <v>28.5903614</v>
       </c>
-      <c r="E648" s="2">
+      <c r="E648" s="3">
         <v>78.5717631</v>
       </c>
       <c r="G648" s="1" t="s">
@@ -15625,10 +15685,10 @@
       <c r="C649" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="D649" s="2">
+      <c r="D649" s="3">
         <v>26.4605377</v>
       </c>
-      <c r="E649" s="2">
+      <c r="E649" s="3">
         <v>79.5112528</v>
       </c>
       <c r="G649" s="1" t="s">
@@ -15645,10 +15705,10 @@
       <c r="C650" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D650" s="2">
+      <c r="D650" s="3">
         <v>29.4501986</v>
       </c>
-      <c r="E650" s="2">
+      <c r="E650" s="3">
         <v>77.3172046</v>
       </c>
       <c r="G650" s="1" t="s">
@@ -15665,10 +15725,10 @@
       <c r="C651" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D651" s="2">
+      <c r="D651" s="3">
         <v>27.5680156</v>
       </c>
-      <c r="E651" s="2">
+      <c r="E651" s="3">
         <v>80.6789519</v>
       </c>
       <c r="G651" s="1" t="s">
@@ -15685,10 +15745,10 @@
       <c r="C652" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D652" s="2">
+      <c r="D652" s="3">
         <v>27.5705152</v>
       </c>
-      <c r="E652" s="2">
+      <c r="E652" s="3">
         <v>81.5976671999999</v>
       </c>
       <c r="G652" s="1" t="s">
@@ -15705,10 +15765,10 @@
       <c r="C653" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D653" s="2">
+      <c r="D653" s="3">
         <v>27.0514156</v>
       </c>
-      <c r="E653" s="2">
+      <c r="E653" s="3">
         <v>79.9136731</v>
       </c>
       <c r="G653" s="1" t="s">
@@ -15725,10 +15785,10 @@
       <c r="C654" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D654" s="2">
+      <c r="D654" s="3">
         <v>26.0739138</v>
       </c>
-      <c r="E654" s="2">
+      <c r="E654" s="3">
         <v>83.1859494999999</v>
       </c>
       <c r="G654" s="1" t="s">
@@ -15745,10 +15805,10 @@
       <c r="C655" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D655" s="2">
+      <c r="D655" s="3">
         <v>27.2281937</v>
       </c>
-      <c r="E655" s="2">
+      <c r="E655" s="3">
         <v>79.0251658999999</v>
       </c>
       <c r="G655" s="1" t="s">
@@ -15765,10 +15825,10 @@
       <c r="C656" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D656" s="2">
+      <c r="D656" s="3">
         <v>27.5035427</v>
       </c>
-      <c r="E656" s="2">
+      <c r="E656" s="3">
         <v>82.036461</v>
       </c>
       <c r="G656" s="1" t="s">
@@ -15785,10 +15845,10 @@
       <c r="C657" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="D657" s="2">
+      <c r="D657" s="3">
         <v>44.288108</v>
       </c>
-      <c r="E657" s="2">
+      <c r="E657" s="3">
         <v>-80.067201</v>
       </c>
       <c r="G657" s="1" t="s">
@@ -15805,10 +15865,10 @@
       <c r="C658" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D658" s="2">
+      <c r="D658" s="3">
         <v>25.7464145</v>
       </c>
-      <c r="E658" s="2">
+      <c r="E658" s="3">
         <v>82.6837032999999</v>
       </c>
       <c r="G658" s="1" t="s">
@@ -15825,10 +15885,10 @@
       <c r="C659" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D659" s="2">
+      <c r="D659" s="3">
         <v>27.5625106</v>
       </c>
-      <c r="E659" s="2">
+      <c r="E659" s="3">
         <v>78.6654148</v>
       </c>
       <c r="G659" s="1" t="s">
@@ -15845,10 +15905,10 @@
       <c r="C660" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="D660" s="2">
+      <c r="D660" s="3">
         <v>27.808529</v>
       </c>
-      <c r="E660" s="2">
+      <c r="E660" s="3">
         <v>78.6461097999999</v>
       </c>
       <c r="G660" s="1" t="s">
@@ -15865,10 +15925,10 @@
       <c r="C661" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D661" s="2">
+      <c r="D661" s="3">
         <v>26.2585371</v>
       </c>
-      <c r="E661" s="2">
+      <c r="E661" s="3">
         <v>82.0659857999999</v>
       </c>
       <c r="G661" s="1" t="s">
@@ -15885,10 +15945,10 @@
       <c r="C662" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D662" s="2">
+      <c r="D662" s="3">
         <v>25.4358011</v>
       </c>
-      <c r="E662" s="2">
+      <c r="E662" s="3">
         <v>81.846311</v>
       </c>
       <c r="G662" s="1" t="s">
@@ -15905,10 +15965,10 @@
       <c r="C663" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D663" s="2">
+      <c r="D663" s="3">
         <v>26.1458649</v>
       </c>
-      <c r="E663" s="2">
+      <c r="E663" s="3">
         <v>79.3296565</v>
       </c>
       <c r="G663" s="1" t="s">
@@ -15925,10 +15985,10 @@
       <c r="C664" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D664" s="2">
+      <c r="D664" s="3">
         <v>25.1336987</v>
       </c>
-      <c r="E664" s="2">
+      <c r="E664" s="3">
         <v>82.5644344</v>
       </c>
       <c r="G664" s="1" t="s">
@@ -15945,10 +16005,10 @@
       <c r="C665" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="D665" s="2">
+      <c r="D665" s="3">
         <v>26.7829103</v>
       </c>
-      <c r="E665" s="2">
+      <c r="E665" s="3">
         <v>79.027659</v>
       </c>
       <c r="G665" s="1" t="s">
@@ -15965,10 +16025,10 @@
       <c r="C666" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D666" s="2">
+      <c r="D666" s="3">
         <v>25.8973038</v>
       </c>
-      <c r="E666" s="2">
+      <c r="E666" s="3">
         <v>81.9452981</v>
       </c>
       <c r="G666" s="1" t="s">
@@ -15985,10 +16045,10 @@
       <c r="C667" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D667" s="2">
+      <c r="D667" s="3">
         <v>25.5877901</v>
       </c>
-      <c r="E667" s="2">
+      <c r="E667" s="3">
         <v>83.5783078</v>
       </c>
       <c r="G667" s="1" t="s">
@@ -16005,10 +16065,10 @@
       <c r="C668" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D668" s="2">
+      <c r="D668" s="3">
         <v>34.0648474</v>
       </c>
-      <c r="E668" s="2">
+      <c r="E668" s="3">
         <v>-118.4471591</v>
       </c>
       <c r="G668" s="1" t="s">
@@ -16025,10 +16085,10 @@
       <c r="C669" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D669" s="2">
+      <c r="D669" s="3">
         <v>33.4715659</v>
       </c>
-      <c r="E669" s="2">
+      <c r="E669" s="3">
         <v>-81.9601725</v>
       </c>
       <c r="G669" s="1" t="s">
@@ -16045,10 +16105,10 @@
       <c r="C670" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D670" s="2">
+      <c r="D670" s="3">
         <v>25.3804531</v>
       </c>
-      <c r="E670" s="2">
+      <c r="E670" s="3">
         <v>82.5676981</v>
       </c>
       <c r="G670" s="1" t="s">
@@ -16065,10 +16125,10 @@
       <c r="C671" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D671" s="2">
+      <c r="D671" s="3">
         <v>26.5393449</v>
       </c>
-      <c r="E671" s="2">
+      <c r="E671" s="3">
         <v>80.4878195</v>
       </c>
       <c r="G671" s="1" t="s">
@@ -16085,10 +16145,10 @@
       <c r="C672" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D672" s="2">
+      <c r="D672" s="3">
         <v>28.62494</v>
       </c>
-      <c r="E672" s="2">
+      <c r="E672" s="3">
         <v>79.8075272</v>
       </c>
       <c r="G672" s="1" t="s">
@@ -16105,10 +16165,10 @@
       <c r="C673" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D673" s="2">
+      <c r="D673" s="3">
         <v>27.4307473</v>
       </c>
-      <c r="E673" s="2">
+      <c r="E673" s="3">
         <v>82.1805203</v>
       </c>
       <c r="G673" s="1" t="s">
@@ -16125,10 +16185,10 @@
       <c r="C674" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D674" s="2">
+      <c r="D674" s="3">
         <v>26.7921605</v>
       </c>
-      <c r="E674" s="2">
+      <c r="E674" s="3">
         <v>82.1997954</v>
       </c>
       <c r="G674" s="1" t="s">
@@ -16145,10 +16205,10 @@
       <c r="C675" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="D675" s="2">
+      <c r="D675" s="3">
         <v>29.4438165</v>
       </c>
-      <c r="E675" s="2">
+      <c r="E675" s="3">
         <v>75.6702646999999</v>
       </c>
       <c r="G675" s="1" t="s">
@@ -16165,10 +16225,10 @@
       <c r="C676" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D676" s="2">
+      <c r="D676" s="3">
         <v>25.4484257</v>
       </c>
-      <c r="E676" s="2">
+      <c r="E676" s="3">
         <v>78.5684594</v>
       </c>
       <c r="G676" s="1" t="s">
@@ -16185,10 +16245,10 @@
       <c r="C677" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D677" s="2">
+      <c r="D677" s="3">
         <v>27.3965071</v>
       </c>
-      <c r="E677" s="2">
+      <c r="E677" s="3">
         <v>80.1250479</v>
       </c>
       <c r="G677" s="1" t="s">
@@ -16205,10 +16265,10 @@
       <c r="C678" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="D678" s="2">
+      <c r="D678" s="3">
         <v>25.361054</v>
       </c>
-      <c r="E678" s="2">
+      <c r="E678" s="3">
         <v>81.4031706999999</v>
       </c>
       <c r="G678" s="1" t="s">
@@ -16225,10 +16285,10 @@
       <c r="C679" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D679" s="2">
+      <c r="D679" s="3">
         <v>26.9268042</v>
       </c>
-      <c r="E679" s="2">
+      <c r="E679" s="3">
         <v>81.1833809</v>
       </c>
       <c r="F679" s="1" t="s">
@@ -16245,10 +16305,10 @@
       <c r="C680" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D680" s="2">
+      <c r="D680" s="3">
         <v>27.9462395</v>
       </c>
-      <c r="E680" s="2">
+      <c r="E680" s="3">
         <v>80.7787163</v>
       </c>
       <c r="F680" s="1" t="s">
@@ -16265,10 +16325,10 @@
       <c r="C681" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="D681" s="2">
+      <c r="D681" s="3">
         <v>27.5980718</v>
       </c>
-      <c r="E681" s="2">
+      <c r="E681" s="3">
         <v>78.0492265</v>
       </c>
       <c r="F681" s="1" t="s">
@@ -16285,10 +16345,10 @@
       <c r="C682" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D682" s="2">
+      <c r="D682" s="3">
         <v>27.1177463</v>
       </c>
-      <c r="E682" s="2">
+      <c r="E682" s="3">
         <v>83.5070203</v>
       </c>
       <c r="F682" s="1" t="s">
@@ -16305,10 +16365,10 @@
       <c r="C683" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="D683" s="2">
+      <c r="D683" s="3">
         <v>27.8753399</v>
       </c>
-      <c r="E683" s="2">
+      <c r="E683" s="3">
         <v>79.9147268</v>
       </c>
       <c r="F683" s="1" t="s">
@@ -16325,10 +16385,10 @@
       <c r="C684" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D684" s="2">
+      <c r="D684" s="3">
         <v>26.4683952</v>
       </c>
-      <c r="E684" s="2">
+      <c r="E684" s="3">
         <v>82.6915429</v>
       </c>
       <c r="F684" s="1" t="s">
@@ -16345,10 +16405,10 @@
       <c r="C685" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D685" s="2">
+      <c r="D685" s="3">
         <v>28.2006882</v>
       </c>
-      <c r="E685" s="2">
+      <c r="E685" s="3">
         <v>79.3651914</v>
       </c>
       <c r="F685" s="1" t="s">
@@ -16365,10 +16425,10 @@
       <c r="C686" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D686" s="2">
+      <c r="D686" s="3">
         <v>25.2604696</v>
       </c>
-      <c r="E686" s="2">
+      <c r="E686" s="3">
         <v>83.264538</v>
       </c>
       <c r="F686" s="1" t="s">
@@ -16385,10 +16445,10 @@
       <c r="C687" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D687" s="2">
+      <c r="D687" s="3">
         <v>25.1788154</v>
       </c>
-      <c r="E687" s="2">
+      <c r="E687" s="3">
         <v>80.8654533999999</v>
       </c>
       <c r="F687" s="1" t="s">
@@ -16405,10 +16465,10 @@
       <c r="C688" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="D688" s="2">
+      <c r="D688" s="3">
         <v>26.5024286</v>
       </c>
-      <c r="E688" s="2">
+      <c r="E688" s="3">
         <v>83.7791283</v>
       </c>
       <c r="F688" s="1" t="s">
@@ -16425,10 +16485,10 @@
       <c r="C689" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D689" s="2">
+      <c r="D689" s="3">
         <v>27.3825853</v>
       </c>
-      <c r="E689" s="2">
+      <c r="E689" s="3">
         <v>79.5840195</v>
       </c>
       <c r="F689" s="1" t="s">
@@ -16445,10 +16505,10 @@
       <c r="C690" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="D690" s="2">
+      <c r="D690" s="3">
         <v>25.8499808</v>
       </c>
-      <c r="E690" s="2">
+      <c r="E690" s="3">
         <v>80.8986501999999</v>
       </c>
       <c r="F690" s="1" t="s">
@@ -16465,10 +16525,10 @@
       <c r="C691" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D691" s="2">
+      <c r="D691" s="3">
         <v>31.6861745</v>
       </c>
-      <c r="E691" s="2">
+      <c r="E691" s="3">
         <v>76.5213091999999</v>
       </c>
       <c r="F691" s="1" t="s">
@@ -16485,10 +16545,10 @@
       <c r="C692" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D692" s="2">
+      <c r="D692" s="3">
         <v>26.526707</v>
       </c>
-      <c r="E692" s="2">
+      <c r="E692" s="3">
         <v>79.8296743</v>
       </c>
       <c r="F692" s="1" t="s">
@@ -16505,10 +16565,10 @@
       <c r="C693" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D693" s="2">
+      <c r="D693" s="3">
         <v>26.7398787</v>
       </c>
-      <c r="E693" s="2">
+      <c r="E693" s="3">
         <v>83.8869698</v>
       </c>
       <c r="F693" s="1" t="s">
@@ -16525,10 +16585,10 @@
       <c r="C694" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D694" s="2">
+      <c r="D694" s="3">
         <v>27.6587525</v>
       </c>
-      <c r="E694" s="2">
+      <c r="E694" s="3">
         <v>85.3247183</v>
       </c>
       <c r="F694" s="1" t="s">
@@ -16545,10 +16605,10 @@
       <c r="C695" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D695" s="2">
+      <c r="D695" s="3">
         <v>25.2920964</v>
       </c>
-      <c r="E695" s="2">
+      <c r="E695" s="3">
         <v>79.8724168</v>
       </c>
       <c r="F695" s="1" t="s">
@@ -16565,10 +16625,10 @@
       <c r="C696" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D696" s="2">
+      <c r="D696" s="3">
         <v>27.2715633</v>
       </c>
-      <c r="E696" s="2">
+      <c r="E696" s="3">
         <v>82.8209739999999</v>
       </c>
       <c r="F696" s="1" t="s">
@@ -16585,10 +16645,10 @@
       <c r="C697" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D697" s="2">
+      <c r="D697" s="3">
         <v>24.6850005</v>
       </c>
-      <c r="E697" s="2">
+      <c r="E697" s="3">
         <v>83.0683519</v>
       </c>
       <c r="F697" s="1" t="s">
@@ -16605,10 +16665,10 @@
       <c r="C698" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D698" s="2">
+      <c r="D698" s="3">
         <v>26.1540538</v>
       </c>
-      <c r="E698" s="2">
+      <c r="E698" s="3">
         <v>81.814238</v>
       </c>
       <c r="F698" s="1" t="s">
@@ -16625,10 +16685,10 @@
       <c r="C699" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D699" s="2">
+      <c r="D699" s="3">
         <v>29.9456906</v>
       </c>
-      <c r="E699" s="2">
+      <c r="E699" s="3">
         <v>78.1642478</v>
       </c>
       <c r="H699" s="1" t="s">
@@ -16645,10 +16705,10 @@
       <c r="C700" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D700" s="2">
+      <c r="D700" s="3">
         <v>30.3164945</v>
       </c>
-      <c r="E700" s="2">
+      <c r="E700" s="3">
         <v>78.0321917999999</v>
       </c>
       <c r="G700" s="1" t="s">
@@ -16665,10 +16725,10 @@
       <c r="C701" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D701" s="2">
+      <c r="D701" s="3">
         <v>29.3919202</v>
       </c>
-      <c r="E701" s="2">
+      <c r="E701" s="3">
         <v>79.4542033</v>
       </c>
       <c r="G701" s="1" t="s">
@@ -16685,10 +16745,10 @@
       <c r="C702" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D702" s="2">
+      <c r="D702" s="3">
         <v>28.9609653</v>
       </c>
-      <c r="E702" s="2">
+      <c r="E702" s="3">
         <v>79.5153773</v>
       </c>
       <c r="F702" s="1" t="s">
@@ -16705,10 +16765,10 @@
       <c r="C703" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D703" s="2">
+      <c r="D703" s="3">
         <v>29.5892407</v>
       </c>
-      <c r="E703" s="2">
+      <c r="E703" s="3">
         <v>79.646666</v>
       </c>
       <c r="F703" s="1" t="s">
@@ -16725,10 +16785,10 @@
       <c r="C704" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D704" s="2">
+      <c r="D704" s="3">
         <v>29.8687682</v>
       </c>
-      <c r="E704" s="2">
+      <c r="E704" s="3">
         <v>78.8382644</v>
       </c>
       <c r="F704" s="1" t="s">
@@ -16745,10 +16805,10 @@
       <c r="C705" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D705" s="2">
+      <c r="D705" s="3">
         <v>29.8403606</v>
       </c>
-      <c r="E705" s="2">
+      <c r="E705" s="3">
         <v>79.769426</v>
       </c>
       <c r="F705" s="1" t="s">
@@ -16765,10 +16825,10 @@
       <c r="C706" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D706" s="2">
+      <c r="D706" s="3">
         <v>30.2937439</v>
       </c>
-      <c r="E706" s="2">
+      <c r="E706" s="3">
         <v>79.560344</v>
       </c>
       <c r="F706" s="1" t="s">
@@ -16785,10 +16845,10 @@
       <c r="C707" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D707" s="2">
+      <c r="D707" s="3">
         <v>29.3360974</v>
       </c>
-      <c r="E707" s="2">
+      <c r="E707" s="3">
         <v>80.0910275</v>
       </c>
       <c r="F707" s="1" t="s">
@@ -16805,10 +16865,10 @@
       <c r="C708" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D708" s="2">
+      <c r="D708" s="3">
         <v>29.5828604</v>
       </c>
-      <c r="E708" s="2">
+      <c r="E708" s="3">
         <v>80.2181884</v>
       </c>
       <c r="F708" s="1" t="s">
@@ -16825,10 +16885,10 @@
       <c r="C709" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D709" s="2">
+      <c r="D709" s="3">
         <v>30.2844141</v>
       </c>
-      <c r="E709" s="2">
+      <c r="E709" s="3">
         <v>78.9811407</v>
       </c>
       <c r="F709" s="1" t="s">
@@ -16845,10 +16905,10 @@
       <c r="C710" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="D710" s="2">
+      <c r="D710" s="3">
         <v>30.3011858</v>
       </c>
-      <c r="E710" s="2">
+      <c r="E710" s="3">
         <v>78.5660852</v>
       </c>
       <c r="F710" s="1" t="s">
@@ -16865,10 +16925,10 @@
       <c r="C711" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D711" s="2">
+      <c r="D711" s="3">
         <v>30.7268307</v>
       </c>
-      <c r="E711" s="2">
+      <c r="E711" s="3">
         <v>78.4354042</v>
       </c>
       <c r="F711" s="1" t="s">
@@ -16885,10 +16945,10 @@
       <c r="C712" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D712" s="2">
+      <c r="D712" s="3">
         <v>22.572646</v>
       </c>
-      <c r="E712" s="2">
+      <c r="E712" s="3">
         <v>88.363895</v>
       </c>
       <c r="H712" s="1" t="s">
@@ -16905,10 +16965,10 @@
       <c r="C713" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D713" s="2">
+      <c r="D713" s="3">
         <v>22.5957689</v>
       </c>
-      <c r="E713" s="2">
+      <c r="E713" s="3">
         <v>88.2636394</v>
       </c>
       <c r="H713" s="1" t="s">
@@ -16925,10 +16985,10 @@
       <c r="C714" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D714" s="2">
+      <c r="D714" s="3">
         <v>22.6168099</v>
       </c>
-      <c r="E714" s="2">
+      <c r="E714" s="3">
         <v>88.402895</v>
       </c>
       <c r="H714" s="1" t="s">
@@ -16945,10 +17005,10 @@
       <c r="C715" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D715" s="2">
+      <c r="D715" s="3">
         <v>22.1352378</v>
       </c>
-      <c r="E715" s="2">
+      <c r="E715" s="3">
         <v>88.4016041</v>
       </c>
       <c r="H715" s="1" t="s">
@@ -16965,10 +17025,10 @@
       <c r="C716" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="D716" s="2">
+      <c r="D716" s="3">
         <v>22.4080376</v>
       </c>
-      <c r="E716" s="2">
+      <c r="E716" s="3">
         <v>87.3810726999999</v>
       </c>
       <c r="H716" s="1" t="s">
@@ -16985,10 +17045,10 @@
       <c r="C717" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D717" s="2">
+      <c r="D717" s="3">
         <v>21.9372879</v>
       </c>
-      <c r="E717" s="2">
+      <c r="E717" s="3">
         <v>87.7763332999999</v>
       </c>
       <c r="H717" s="1" t="s">
@@ -17005,10 +17065,10 @@
       <c r="C718" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D718" s="2">
+      <c r="D718" s="3">
         <v>27.0410218</v>
       </c>
-      <c r="E718" s="2">
+      <c r="E718" s="3">
         <v>88.2662745</v>
       </c>
       <c r="H718" s="1" t="s">
@@ -17025,10 +17085,10 @@
       <c r="C719" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D719" s="2">
+      <c r="D719" s="3">
         <v>26.5214579</v>
       </c>
-      <c r="E719" s="2">
+      <c r="E719" s="3">
         <v>88.7195567</v>
       </c>
       <c r="H719" s="1" t="s">
@@ -17045,10 +17105,10 @@
       <c r="C720" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D720" s="2">
+      <c r="D720" s="3">
         <v>27.0593562</v>
       </c>
-      <c r="E720" s="2">
+      <c r="E720" s="3">
         <v>88.4694535</v>
       </c>
       <c r="H720" s="1" t="s">
@@ -17065,10 +17125,10 @@
       <c r="C721" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="D721" s="2">
+      <c r="D721" s="3">
         <v>25.1785773</v>
       </c>
-      <c r="E721" s="2">
+      <c r="E721" s="3">
         <v>88.2461182999999</v>
       </c>
       <c r="H721" s="1" t="s">
@@ -17085,10 +17145,10 @@
       <c r="C722" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D722" s="2">
+      <c r="D722" s="3">
         <v>22.9011588</v>
       </c>
-      <c r="E722" s="2">
+      <c r="E722" s="3">
         <v>88.3898552</v>
       </c>
       <c r="G722" s="1" t="s">
@@ -17105,8 +17165,12 @@
       <c r="C723" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D723" s="3"/>
-      <c r="E723" s="4"/>
+      <c r="D723" s="6">
+        <v>23.2324214</v>
+      </c>
+      <c r="E723" s="7">
+        <v>87.8614793</v>
+      </c>
       <c r="G723" s="1" t="s">
         <v>21</v>
       </c>
@@ -17121,10 +17185,10 @@
       <c r="C724" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D724" s="2">
+      <c r="D724" s="3">
         <v>37.0521203</v>
       </c>
-      <c r="E724" s="2">
+      <c r="E724" s="3">
         <v>-94.5238914999999</v>
       </c>
       <c r="G724" s="1" t="s">
@@ -17141,10 +17205,10 @@
       <c r="C725" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D725" s="2">
+      <c r="D725" s="3">
         <v>23.2390023</v>
       </c>
-      <c r="E725" s="2">
+      <c r="E725" s="3">
         <v>87.8694597</v>
       </c>
       <c r="G725" s="1" t="s">
@@ -17161,10 +17225,10 @@
       <c r="C726" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="D726" s="2">
+      <c r="D726" s="3">
         <v>24.1759039</v>
       </c>
-      <c r="E726" s="2">
+      <c r="E726" s="3">
         <v>88.2801785</v>
       </c>
       <c r="G726" s="1" t="s">
@@ -17181,10 +17245,10 @@
       <c r="C727" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D727" s="2">
+      <c r="D727" s="3">
         <v>25.9810393</v>
       </c>
-      <c r="E727" s="2">
+      <c r="E727" s="3">
         <v>88.050979</v>
       </c>
       <c r="F727" s="1" t="s">
@@ -17201,10 +17265,10 @@
       <c r="C728" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D728" s="2">
+      <c r="D728" s="3">
         <v>23.2312686</v>
       </c>
-      <c r="E728" s="2">
+      <c r="E728" s="3">
         <v>87.0783874999999</v>
       </c>
       <c r="F728" s="1" t="s">
@@ -17221,10 +17285,10 @@
       <c r="C729" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D729" s="2">
+      <c r="D729" s="3">
         <v>23.8401675</v>
       </c>
-      <c r="E729" s="2">
+      <c r="E729" s="3">
         <v>87.6186379</v>
       </c>
       <c r="F729" s="1" t="s">
@@ -17241,10 +17305,10 @@
       <c r="C730" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D730" s="2">
+      <c r="D730" s="3">
         <v>26.3452397</v>
       </c>
-      <c r="E730" s="2">
+      <c r="E730" s="3">
         <v>89.4482079</v>
       </c>
       <c r="F730" s="1" t="s">
@@ -17261,10 +17325,10 @@
       <c r="C731" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D731" s="2">
+      <c r="D731" s="3">
         <v>25.3715308</v>
       </c>
-      <c r="E731" s="2">
+      <c r="E731" s="3">
         <v>88.5565309999999</v>
       </c>
       <c r="F731" s="1" t="s">
@@ -17281,10 +17345,10 @@
       <c r="C732" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D732" s="2">
+      <c r="D732" s="3">
         <v>23.3322026</v>
       </c>
-      <c r="E732" s="2">
+      <c r="E732" s="3">
         <v>86.3616405</v>
       </c>
       <c r="F732" s="1" t="s">
@@ -17301,10 +17365,10 @@
       <c r="C733" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D733" s="2">
+      <c r="D733" s="3">
         <v>26.4922164</v>
       </c>
-      <c r="E733" s="2">
+      <c r="E733" s="3">
         <v>89.5319627</v>
       </c>
       <c r="F733" s="1" t="s">
@@ -17321,10 +17385,10 @@
       <c r="C734" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D734" s="2">
+      <c r="D734" s="3">
         <v>22.4549909</v>
       </c>
-      <c r="E734" s="2">
+      <c r="E734" s="3">
         <v>86.9974385</v>
       </c>
       <c r="F734" s="1" t="s">
